--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1827"/>
+  <dimension ref="A1:F1833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47878,6 +47878,162 @@
         </is>
       </c>
     </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>3291-2-L122</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>JENABIEN - ARRIENDO CARPA Y CUBREPISO</t>
+        </is>
+      </c>
+      <c r="D1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1828" s="2" t="n">
+        <v>44711.72916666666</v>
+      </c>
+      <c r="F1828" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3291-2-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>2384-8-LQ22</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>Programa de Seguridad Territorial Vecinal</t>
+        </is>
+      </c>
+      <c r="D1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1829" s="2" t="n">
+        <v>44708.37847222222</v>
+      </c>
+      <c r="F1829" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2384-8-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>3946-23-LE22</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO SERVICIOS DE TRANSPORTE PARA ESTUDIANTES DE LA ESCUELA ENRIQUE SERRANO DE LA COMUNA DE PICHIDEGUA N°3</t>
+        </is>
+      </c>
+      <c r="D1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1830" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1830" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3946-23-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>3946-30-LE22</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO SERVICIOS DE TRANSPORTE PARA ESTUDIANTES DE LA ESCUELA PATAGUAS CERRO SIGLO XXI FERNANDO HUERTA DE LA COMUNA DE PICHIDEGUA N°4</t>
+        </is>
+      </c>
+      <c r="D1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1831" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1831" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3946-30-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>3946-31-LE22</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO SERVICIOS DE TRANSPORTE PARA ESTUDIANTES DE LA ESCUELAS EL SALTO CALEUCHE Y SAN ROBERTO DE LA COMUNA DE PICHIDEGUA N°5</t>
+        </is>
+      </c>
+      <c r="D1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1832" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1832" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3946-31-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>3946-34-LE22</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO SERVICIOS DE TRANSPORTE PARA ESTUDIANTES DE LA ESCUELA  REINO DE DINAMARCA DE LA COMUNA DE PICHIDEGUA N°8</t>
+        </is>
+      </c>
+      <c r="D1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1833" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1833" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3946-34-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1833"/>
+  <dimension ref="A1:F1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48034,6 +48034,32 @@
         </is>
       </c>
     </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>4281-24-L122</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO POR MANTENCIÓN DE MAQUINAS.</t>
+        </is>
+      </c>
+      <c r="D1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1834" s="2" t="n">
+        <v>44697.625</v>
+      </c>
+      <c r="F1834" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-24-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1834"/>
+  <dimension ref="A1:F1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48060,6 +48060,32 @@
         </is>
       </c>
     </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>734808-5-LE22</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>MATERIALES DE ASEO PARA EL DEPTO DE EDUCACIÓN</t>
+        </is>
+      </c>
+      <c r="D1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1835" s="2" t="n">
+        <v>44711.75</v>
+      </c>
+      <c r="F1835" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=734808-5-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1835"/>
+  <dimension ref="A1:F1847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48086,6 +48086,318 @@
         </is>
       </c>
     </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>3474-35-LE22</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Adquisición de útiles de aseo materiales de oficina y quirúrgicos para la plana mayor de la Dirección de Educación Doctrina e Historia</t>
+        </is>
+      </c>
+      <c r="D1836" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1836" s="2" t="n">
+        <v>44684.83333333334</v>
+      </c>
+      <c r="F1836" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3474-35-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>3916-21-CO22</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>Provisión de arriendo de máquinas de impresion</t>
+        </is>
+      </c>
+      <c r="D1837" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1837" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1837" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3916-21-CO22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>634-151-LE21</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>Servicio impresión Dípticos, volantes y trípticos</t>
+        </is>
+      </c>
+      <c r="D1838" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1838" s="2" t="n">
+        <v>44550.64583333334</v>
+      </c>
+      <c r="F1838" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=634-151-LE21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>1778-35-LE22</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>Servicios de implementación manutención corrasistencia de emergencia a Generador Eléctrico en edificio de Teatinos 726</t>
+        </is>
+      </c>
+      <c r="D1839" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1839" s="2" t="n">
+        <v>44705.625</v>
+      </c>
+      <c r="F1839" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1778-35-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>948806-13-LQ22</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>Adquisición de Cage para Colocación Vía Transforaminal TLIF Titanio en modalidad de Consignación por Sistema de Suministro para el Hospital de la Dirección de Previsión de Carabineros de Chile.</t>
+        </is>
+      </c>
+      <c r="D1840" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1840" s="2" t="n">
+        <v>44631.66666666666</v>
+      </c>
+      <c r="F1840" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=948806-13-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>3191-45-LQ22</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE INSUMOS ONCOLÓGICOS CON EQUIPOS PORTÁTILES EN COMODATO</t>
+        </is>
+      </c>
+      <c r="D1841" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1841" s="2" t="n">
+        <v>44678.70833333334</v>
+      </c>
+      <c r="F1841" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3191-45-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>2274-23-LE22</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>MANTEN. PREVENTIVO DE EQUIPOS MEDICOS DECRETO 1433</t>
+        </is>
+      </c>
+      <c r="D1842" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1842" s="2" t="n">
+        <v>44635.73194444444</v>
+      </c>
+      <c r="F1842" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2274-23-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>1045-2-LE22</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>MANTENCIÓN E INSTALACIÓN ESTACIONES METEOROLÓGICAS</t>
+        </is>
+      </c>
+      <c r="D1843" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1843" s="2" t="n">
+        <v>44707.625</v>
+      </c>
+      <c r="F1843" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1045-2-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>1019-63-L122</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE MUEBLES PARA LABORATORIO DE SEDIMENTOS DE LA D.G.A</t>
+        </is>
+      </c>
+      <c r="D1844" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1844" s="2" t="n">
+        <v>44711.66666666666</v>
+      </c>
+      <c r="F1844" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1019-63-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>3320-16-L122</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>010_566_LIBROS EMPASTADOS</t>
+        </is>
+      </c>
+      <c r="D1845" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1845" s="2" t="n">
+        <v>44697.62569444445</v>
+      </c>
+      <c r="F1845" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3320-16-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>316-33-LE22</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE HIDROLAVADORA PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="D1846" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1846" s="2" t="n">
+        <v>44656.5</v>
+      </c>
+      <c r="F1846" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=316-33-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>1288-9-LE22</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>LICENCIAS DE AUTOCAD</t>
+        </is>
+      </c>
+      <c r="D1847" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1847" s="2" t="n">
+        <v>44662.64583333334</v>
+      </c>
+      <c r="F1847" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1288-9-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1847"/>
+  <dimension ref="A1:F1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48398,6 +48398,188 @@
         </is>
       </c>
     </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>5358-1-LE22</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN E INSTALACIÓN DE BUTACAS PARA AUDITORIO UTA IQUIQUE</t>
+        </is>
+      </c>
+      <c r="D1848" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1848" s="2" t="n">
+        <v>44659.62569444445</v>
+      </c>
+      <c r="F1848" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5358-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>975-201-LR21</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>SERVICIO DE CONTROL GESTIÓN Y VIGILANCIA CHIRONTA</t>
+        </is>
+      </c>
+      <c r="D1849" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1849" s="2" t="n">
+        <v>44651.625</v>
+      </c>
+      <c r="F1849" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=975-201-LR21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2111-106-LQ22</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>FÓRMULAS DE NUTRICIÓN ENTERAL</t>
+        </is>
+      </c>
+      <c r="D1850" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1850" s="2" t="n">
+        <v>44699.625</v>
+      </c>
+      <c r="F1850" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-106-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>4487-29-LE22</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE CAPACITACIÓN PERSONAL</t>
+        </is>
+      </c>
+      <c r="D1851" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1851" s="2" t="n">
+        <v>44713.68055555555</v>
+      </c>
+      <c r="F1851" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4487-29-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>4879-10-LE22</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>PRODUCCIÓN INTEGRAL PROGRAMA DE PÚBLICOS DE LA EXP</t>
+        </is>
+      </c>
+      <c r="D1852" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1852" s="2" t="n">
+        <v>44708.62847222222</v>
+      </c>
+      <c r="F1852" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4879-10-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>1699-6-LE22</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>Mantenciones de Viviendas Judiciales Zonal Rgua</t>
+        </is>
+      </c>
+      <c r="D1853" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1853" s="2" t="n">
+        <v>44708.625</v>
+      </c>
+      <c r="F1853" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1699-6-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>886954-4-LE22</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>CONVENIO SUMINISTRO BOTÓN GASTROSTOMÍA</t>
+        </is>
+      </c>
+      <c r="D1854" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1854" s="2" t="n">
+        <v>44641.625</v>
+      </c>
+      <c r="F1854" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=886954-4-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1854"/>
+  <dimension ref="A1:F1861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48580,6 +48580,188 @@
         </is>
       </c>
     </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>3845-3-LE22</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO PUERTAS Y VENTANAS SALAS DE CLASES</t>
+        </is>
+      </c>
+      <c r="D1855" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1855" s="2" t="n">
+        <v>44708.375</v>
+      </c>
+      <c r="F1855" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3845-3-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>612-3-LP22</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>Servicios  de asesoría en Construcción</t>
+        </is>
+      </c>
+      <c r="D1856" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1856" s="2" t="n">
+        <v>44676.75</v>
+      </c>
+      <c r="F1856" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=612-3-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>1965-12-LE22</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Servicio de Mantención de Centrales Térmicas</t>
+        </is>
+      </c>
+      <c r="D1857" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1857" s="2" t="n">
+        <v>44711.625</v>
+      </c>
+      <c r="F1857" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1965-12-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>1340-29-LE22</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>Servicio de suministro reparación y mantención de extintores</t>
+        </is>
+      </c>
+      <c r="D1858" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1858" s="2" t="n">
+        <v>44714.625</v>
+      </c>
+      <c r="F1858" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1340-29-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>4404-29-L122</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>Adquisición de neumáticos para vehículos del departamento de Educación de San Clemente”. Solicitud de compra Nº 385 de 2022</t>
+        </is>
+      </c>
+      <c r="D1859" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1859" s="2" t="n">
+        <v>44705.47222222222</v>
+      </c>
+      <c r="F1859" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4404-29-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>3704-58-L122</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>Adquirir materiales de ferretería</t>
+        </is>
+      </c>
+      <c r="D1860" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1860" s="2" t="n">
+        <v>44712.43402777778</v>
+      </c>
+      <c r="F1860" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3704-58-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2377-186-L122</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>IDDOC N°578239 ADQISICION DE MEDICAMENTOS Y COMPLENTOS NUTRCIONALE</t>
+        </is>
+      </c>
+      <c r="D1861" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1861" s="2" t="n">
+        <v>44711.66666666666</v>
+      </c>
+      <c r="F1861" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-186-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1861"/>
+  <dimension ref="A1:F1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48762,6 +48762,84 @@
         </is>
       </c>
     </row>
+    <row r="1862">
+      <c r="A1862" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>4967-4-LQ22</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>CONVENIO DE CINTIGRAMA OSEO Y PET-SCAN PARA EL HOSPITAL DE QUILPUÉ</t>
+        </is>
+      </c>
+      <c r="D1862" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1862" s="2" t="n">
+        <v>44656.70833333334</v>
+      </c>
+      <c r="F1862" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4967-4-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2328-163-L122</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>ADQUISICIONES DE CONTENEDOR PARA ESCUELAS CHAICAS/DAEM 14613(SE ADJUNTA ESPECIFICACIONES TECNICAS Y ANEXO 1 PLANTA TIPO BODEGA)</t>
+        </is>
+      </c>
+      <c r="D1863" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1863" s="2" t="n">
+        <v>44686.625</v>
+      </c>
+      <c r="F1863" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-163-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>3206-74-L122</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>MATERIALES DE CONSTRUCCION DEPARTAMENTO DE OBRAS</t>
+        </is>
+      </c>
+      <c r="D1864" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1864" s="2" t="n">
+        <v>44711.625</v>
+      </c>
+      <c r="F1864" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3206-74-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1864"/>
+  <dimension ref="A1:F1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48840,6 +48840,370 @@
         </is>
       </c>
     </row>
+    <row r="1865">
+      <c r="A1865" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>727202-47-LE22</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SERVICIO DE INTERNET</t>
+        </is>
+      </c>
+      <c r="D1865" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1865" s="2" t="n">
+        <v>44701.375</v>
+      </c>
+      <c r="F1865" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-47-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>727202-48-LE22</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE MASCARILLAS DESECHABLES</t>
+        </is>
+      </c>
+      <c r="D1866" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1866" s="2" t="n">
+        <v>44697.62569444445</v>
+      </c>
+      <c r="F1866" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=727202-48-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>1175-44-LE22</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>49.22 HABILITACION BAÑO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="D1867" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1867" s="2" t="n">
+        <v>44662.64583333334</v>
+      </c>
+      <c r="F1867" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1175-44-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>3807-4-LE22</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>Estudio mecánica de suelos Nuevo CESFAM Empedrado</t>
+        </is>
+      </c>
+      <c r="D1868" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1868" s="2" t="n">
+        <v>44708.625</v>
+      </c>
+      <c r="F1868" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3807-4-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>1725-77-LE22</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>PRODUCCIÓN AUDIOVISUAL DE SERIE WEB PLAN F</t>
+        </is>
+      </c>
+      <c r="D1869" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1869" s="2" t="n">
+        <v>44679.5</v>
+      </c>
+      <c r="F1869" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1725-77-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2268-12-LE22</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>SERVICIO DE REMODELACION OFICINAS DEL SEGUNDO PISO CENABAST</t>
+        </is>
+      </c>
+      <c r="D1870" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1870" s="2" t="n">
+        <v>44686.66666666666</v>
+      </c>
+      <c r="F1870" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2268-12-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>1057544-150-LE22</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE  HOSPITAL LAS HIGUERAS</t>
+        </is>
+      </c>
+      <c r="D1871" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1871" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1871" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057544-150-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>3759-75-L122</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>Elaboración Plan Anual de Cultura</t>
+        </is>
+      </c>
+      <c r="D1872" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1872" s="2" t="n">
+        <v>44713.55277777778</v>
+      </c>
+      <c r="F1872" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3759-75-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>4689-14-LQ22</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>DISEÑO ARQUITECTURA COMPLEJO EDUCACIONAL MAULE</t>
+        </is>
+      </c>
+      <c r="D1873" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1873" s="2" t="n">
+        <v>44687.72916666666</v>
+      </c>
+      <c r="F1873" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4689-14-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>3621-42-L122</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>COMPRA DE MOBILIARIO</t>
+        </is>
+      </c>
+      <c r="D1874" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1874" s="2" t="n">
+        <v>44708.64652777778</v>
+      </c>
+      <c r="F1874" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-42-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2281-92-L122</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>SERVICIO REPARACION SECTOR RESTAURANT EN MERCADO MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="D1875" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1875" s="2" t="n">
+        <v>44711.75</v>
+      </c>
+      <c r="F1875" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2281-92-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>3477-115-LE22</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>SERVICIO DE DIFUSION RADIAL MUNICIPAL CON COBERTURA REGIONAL</t>
+        </is>
+      </c>
+      <c r="D1876" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1876" s="2" t="n">
+        <v>44691.51111111111</v>
+      </c>
+      <c r="F1876" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3477-115-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>1191688-46-LE22</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>Programa de veredas menos de 30 m2 Stgo. Rebolledo</t>
+        </is>
+      </c>
+      <c r="D1877" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1877" s="2" t="n">
+        <v>44691.5</v>
+      </c>
+      <c r="F1877" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-46-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>434-46-L122</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>COMPUTADORES. SEGUN MEMO N° 17 ASESORIA JURIDICA</t>
+        </is>
+      </c>
+      <c r="D1878" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1878" s="2" t="n">
+        <v>44706.44513888889</v>
+      </c>
+      <c r="F1878" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=434-46-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1878"/>
+  <dimension ref="A1:F1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49204,6 +49204,32 @@
         </is>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2345-99-LE22</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN ELEMENTO SEGURIDAD AUTOMOVIL MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="D1879" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1879" s="2" t="n">
+        <v>44700.45833333334</v>
+      </c>
+      <c r="F1879" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2345-99-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1879"/>
+  <dimension ref="A1:F1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49230,6 +49230,214 @@
         </is>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>800-38-LE21</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE INSUMOS PARA CULTIVOS CELULARES</t>
+        </is>
+      </c>
+      <c r="D1880" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1880" s="2" t="n">
+        <v>44539.66666666666</v>
+      </c>
+      <c r="F1880" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=800-38-LE21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2111-109-LQ22</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>BOLSAS DE ASPIRACIÓN Y TUBO DE CONEXIÓN</t>
+        </is>
+      </c>
+      <c r="D1881" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1881" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1881" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-109-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>857-19-L122</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>Seguros contra incendio y otros para las Direcciones Regionales.</t>
+        </is>
+      </c>
+      <c r="D1882" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1882" s="2" t="n">
+        <v>44721.63541666666</v>
+      </c>
+      <c r="F1882" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=857-19-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2369-66-LR21</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>PP 71 SERV. DE VOZ, DATA CENTER, INTERNET I.M.A.</t>
+        </is>
+      </c>
+      <c r="D1883" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1883" s="2" t="n">
+        <v>44603.5</v>
+      </c>
+      <c r="F1883" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2369-66-LR21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>4375-31-LP22</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>Mantenimiento de lavadoras y gabinete de secado</t>
+        </is>
+      </c>
+      <c r="D1884" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1884" s="2" t="n">
+        <v>44662.65625</v>
+      </c>
+      <c r="F1884" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4375-31-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>5702-30-LP22</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>DIRECCION REGIONAL SERVICIO DE SUMINISTRO DE GLP</t>
+        </is>
+      </c>
+      <c r="D1885" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1885" s="2" t="n">
+        <v>44683.66666666666</v>
+      </c>
+      <c r="F1885" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5702-30-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>3471-15-LE22</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>ROPA CLINICA PARA LAVANDERIA Y ROPERIA HOSCAR</t>
+        </is>
+      </c>
+      <c r="D1886" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1886" s="2" t="n">
+        <v>44699.66666666666</v>
+      </c>
+      <c r="F1886" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3471-15-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2713-108-L122</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>ARRIENDO DE ESPACIO TELEVISIVO EMISION DE NOTICIAS</t>
+        </is>
+      </c>
+      <c r="D1887" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1887" s="2" t="n">
+        <v>44718.64583333334</v>
+      </c>
+      <c r="F1887" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2713-108-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1887"/>
+  <dimension ref="A1:F1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49438,6 +49438,136 @@
         </is>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2674-57-LE22</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE 29 CONTENEDORES DE 1100 LITROS</t>
+        </is>
+      </c>
+      <c r="D1888" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1888" s="2" t="n">
+        <v>44692.63194444445</v>
+      </c>
+      <c r="F1888" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2674-57-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2422-246-L122</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S/A 936751 DIMAO  VACUNAS ANTIRRABICAS MONODOSIS  Y MULTIDOSIS  </t>
+        </is>
+      </c>
+      <c r="D1889" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1889" s="2" t="n">
+        <v>44684.69791666666</v>
+      </c>
+      <c r="F1889" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-246-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2422-277-L122</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>SOL. ADQ. 936542 BOLSAS REUTILIZABLES</t>
+        </is>
+      </c>
+      <c r="D1890" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1890" s="2" t="n">
+        <v>44700.80833333333</v>
+      </c>
+      <c r="F1890" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-277-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2111-139-LP22</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>CATETER CENTRAL DE INSERCIÓN PERIFERICA DOBLE LUME</t>
+        </is>
+      </c>
+      <c r="D1891" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1891" s="2" t="n">
+        <v>44706.625</v>
+      </c>
+      <c r="F1891" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-139-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2332-38-L122</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>Asesoría Profesional Técnica para Gestión de Proyectos DESAM</t>
+        </is>
+      </c>
+      <c r="D1892" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1892" s="2" t="n">
+        <v>44664.625</v>
+      </c>
+      <c r="F1892" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2332-38-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1892"/>
+  <dimension ref="A1:F1899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49568,6 +49568,188 @@
         </is>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>777304-63-L122</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>INSUMOS FERULAS PARA HOSPITAL LA FLORIDA</t>
+        </is>
+      </c>
+      <c r="D1893" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1893" s="2" t="n">
+        <v>44719.70833333334</v>
+      </c>
+      <c r="F1893" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=777304-63-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>994-4-LQ22</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTRATO MANTENCION Y REPARACION EQUIPOS JOHN DEERE-HAMN Y RENAULT </t>
+        </is>
+      </c>
+      <c r="D1894" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1894" s="2" t="n">
+        <v>44678.82013888889</v>
+      </c>
+      <c r="F1894" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=994-4-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>621-469-LE22</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILLA RUEDA PEDIA RUED INFL ASIE VARIAS MEDIDAS  1000017022  </t>
+        </is>
+      </c>
+      <c r="D1895" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1895" s="2" t="n">
+        <v>44692.66666666666</v>
+      </c>
+      <c r="F1895" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-469-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2377-201-L122</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>IDDOC  N° 583636 ESPECIES ARBOREAS</t>
+        </is>
+      </c>
+      <c r="D1896" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1896" s="2" t="n">
+        <v>44722.4375</v>
+      </c>
+      <c r="F1896" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-201-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>1796-7-LE22</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>Servicio de atención en el área de oftalmología</t>
+        </is>
+      </c>
+      <c r="D1897" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1897" s="2" t="n">
+        <v>44708.83263888889</v>
+      </c>
+      <c r="F1897" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1796-7-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>994-5-LQ22</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>CONTRATO MAESTRANZA METAL MECANICA PROV. DE HUASCO VIALIDAD ATACAMA</t>
+        </is>
+      </c>
+      <c r="D1898" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1898" s="2" t="n">
+        <v>44678.80277777778</v>
+      </c>
+      <c r="F1898" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=994-5-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>1186229-13-LR22</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>Soporte de Metro Storage Cluster y Switch Core</t>
+        </is>
+      </c>
+      <c r="D1899" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1899" s="2" t="n">
+        <v>44698.625</v>
+      </c>
+      <c r="F1899" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1186229-13-LR22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1899"/>
+  <dimension ref="A1:F1929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49750,6 +49750,786 @@
         </is>
       </c>
     </row>
+    <row r="1900">
+      <c r="A1900" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>2328-176-L122</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>ADQ. DE REPUESTOS BUS ESCOLAR DAEM PPU: FFCK-70/ 14665</t>
+        </is>
+      </c>
+      <c r="D1900" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1900" s="2" t="n">
+        <v>44697.625</v>
+      </c>
+      <c r="F1900" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-176-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2273-92-LE22</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>REPARACION DE CUBIERTA EDIFICIO CONSISTORIAL  D-C 538 XG</t>
+        </is>
+      </c>
+      <c r="D1901" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1901" s="2" t="n">
+        <v>44685.50555555556</v>
+      </c>
+      <c r="F1901" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2273-92-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>548867-5-L122</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>SERVICIO DE CAPACITACION PSICOLOGÍA DE LA SALUD Y CONTROL DEL ESTRÉS LABORAL, PARA FUNCIONARIOS/AS DEL IPS REGION DE LOS RÍOS</t>
+        </is>
+      </c>
+      <c r="D1902" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1902" s="2" t="n">
+        <v>44720.625</v>
+      </c>
+      <c r="F1902" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=548867-5-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>1047027-5-LQ22</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>CONVENIO SUMINISTRO FARMACOS MARZO</t>
+        </is>
+      </c>
+      <c r="D1903" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1903" s="2" t="n">
+        <v>44683.64583333334</v>
+      </c>
+      <c r="F1903" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1047027-5-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>1047027-6-LQ22</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>CONVENIO SUMINISTRO MARZO 2</t>
+        </is>
+      </c>
+      <c r="D1904" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1904" s="2" t="n">
+        <v>44683.64583333334</v>
+      </c>
+      <c r="F1904" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1047027-6-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2963-27-LR22</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENCIÓN DE AREAS VERDES</t>
+        </is>
+      </c>
+      <c r="D1905" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1905" s="2" t="n">
+        <v>44691.41666666666</v>
+      </c>
+      <c r="F1905" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2963-27-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2111-131-LQ22</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>CATÉTER VENOSO CENTRAL TRIPLE Y PENTA LUMEN</t>
+        </is>
+      </c>
+      <c r="D1906" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1906" s="2" t="n">
+        <v>44708.625</v>
+      </c>
+      <c r="F1906" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-131-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>1057503-5-LR22</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>Servicios Médicos de Anestesiología y Conexos HPH</t>
+        </is>
+      </c>
+      <c r="D1907" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1907" s="2" t="n">
+        <v>44705.72916666666</v>
+      </c>
+      <c r="F1907" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057503-5-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>4563-14-CO22</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>TRANSPORTE ESCOLAR AÑO 2022 DAEM MUNICIPALIDAD GRA</t>
+        </is>
+      </c>
+      <c r="D1908" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1908" s="2" t="n">
+        <v>44726.70833333334</v>
+      </c>
+      <c r="F1908" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4563-14-CO22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2429-41-L122</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADQUISICIÓN DE 115 SEÑALETICAS DE TRANSITO SEGÚN DETALLE ESPECIFICADO </t>
+        </is>
+      </c>
+      <c r="D1909" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1909" s="2" t="n">
+        <v>44725.66666666666</v>
+      </c>
+      <c r="F1909" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2429-41-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>1499-68-LE22</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Suministro e Instalación de Sistema CCTV</t>
+        </is>
+      </c>
+      <c r="D1910" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1910" s="2" t="n">
+        <v>44704.81111111111</v>
+      </c>
+      <c r="F1910" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1499-68-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>3320-13-L122</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>010_566_libros empastados</t>
+        </is>
+      </c>
+      <c r="D1911" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1911" s="2" t="n">
+        <v>44686.625</v>
+      </c>
+      <c r="F1911" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3320-13-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>2904-24-LE22</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTRO DE PRODUCTOS FARMACÉUTICOS PAÑALES Y SUPLEMENTOS ALIMENTICIOS</t>
+        </is>
+      </c>
+      <c r="D1912" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1912" s="2" t="n">
+        <v>44707.72916666666</v>
+      </c>
+      <c r="F1912" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2904-24-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>3960-71-L122</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>SHOW RANCHERO PARA CELEBRACIÓN DÍA DEL PADRE</t>
+        </is>
+      </c>
+      <c r="D1913" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1913" s="2" t="n">
+        <v>44728.375</v>
+      </c>
+      <c r="F1913" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3960-71-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>729-165-LP22</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>Mantenimiento de Lucarnas 2022</t>
+        </is>
+      </c>
+      <c r="D1914" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1914" s="2" t="n">
+        <v>44687.75</v>
+      </c>
+      <c r="F1914" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=729-165-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>5158-10-LP22</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>Remodelación de Salón Interdisciplinario FACSEJ-UMD 1856 Campus Enrique Molina Garmendia de La Universidad de La Serena</t>
+        </is>
+      </c>
+      <c r="D1915" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1915" s="2" t="n">
+        <v>44684.66666666666</v>
+      </c>
+      <c r="F1915" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5158-10-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>4303-2-L122</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">“Adquisición de material bibliográfico para la Coordinación de Bibliotecas Públicas de Valparaíso”, </t>
+        </is>
+      </c>
+      <c r="D1916" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1916" s="2" t="n">
+        <v>44721.83333333334</v>
+      </c>
+      <c r="F1916" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4303-2-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>1725-109-LE22</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>SERVICIO ALIMENTACIÓN DEL CONSEJO NACIONAL</t>
+        </is>
+      </c>
+      <c r="D1917" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1917" s="2" t="n">
+        <v>44715.5</v>
+      </c>
+      <c r="F1917" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1725-109-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>1173442-1-LE22</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>Suministro madera para Taller muebleria</t>
+        </is>
+      </c>
+      <c r="D1918" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1918" s="2" t="n">
+        <v>44722.625</v>
+      </c>
+      <c r="F1918" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1173442-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>618923-19-L122</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Contratación de seguros para vehículos fiscales de la Subsecretaría para las Fuerzas Armadas</t>
+        </is>
+      </c>
+      <c r="D1919" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1919" s="2" t="n">
+        <v>44722.75</v>
+      </c>
+      <c r="F1919" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=618923-19-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>1171406-1-LE22</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>CONSTRUCCION NICHOS CEMENTERIO MUNICIPAL DE COELEM</t>
+        </is>
+      </c>
+      <c r="D1920" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1920" s="2" t="n">
+        <v>44725.64583333334</v>
+      </c>
+      <c r="F1920" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1171406-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>2996-74-LE22</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>Pintura Cesfam El Palqui</t>
+        </is>
+      </c>
+      <c r="D1921" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1921" s="2" t="n">
+        <v>44726.69305555556</v>
+      </c>
+      <c r="F1921" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2996-74-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>1572-18-CO22</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>ARRIENDO DE VEHÍCULO PARA FUNCIONARIOS JUNJI</t>
+        </is>
+      </c>
+      <c r="D1922" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1922" s="2" t="n">
+        <v>44715.60763888889</v>
+      </c>
+      <c r="F1922" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1572-18-CO22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>2279-44-LE22</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>SP 381 SERVICIO PRODUCION DE EVENTOS DIDECO</t>
+        </is>
+      </c>
+      <c r="D1923" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1923" s="2" t="n">
+        <v>44728.41666666666</v>
+      </c>
+      <c r="F1923" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2279-44-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>993-67-LE22</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARENA TIPO POLVO DE ROCA RUTA 62S11436. </t>
+        </is>
+      </c>
+      <c r="D1924" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1924" s="2" t="n">
+        <v>44714.625</v>
+      </c>
+      <c r="F1924" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=993-67-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>1641-59-LQ22</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IJA-SERVICIO DE TECNICO PARAMEDICO UO ENFERMERIA </t>
+        </is>
+      </c>
+      <c r="D1925" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1925" s="2" t="n">
+        <v>44669.66666666666</v>
+      </c>
+      <c r="F1925" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1641-59-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>895-9-LE22</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>Conservación y Modernización Estación Tascadero</t>
+        </is>
+      </c>
+      <c r="D1926" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1926" s="2" t="n">
+        <v>44725.625</v>
+      </c>
+      <c r="F1926" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=895-9-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>1549-9-LR22</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>SERVICIO DE SEGURIDAD PARA EL HOSPITAL SAN JOSÉ</t>
+        </is>
+      </c>
+      <c r="D1927" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1927" s="2" t="n">
+        <v>44669.62569444445</v>
+      </c>
+      <c r="F1927" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1549-9-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>2422-285-LE22</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>SA 936779 DITIC EQUIPAMIENTO PARA PRESENTACIONES EN TERRENO</t>
+        </is>
+      </c>
+      <c r="D1928" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1928" s="2" t="n">
+        <v>44704.66666666666</v>
+      </c>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-285-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>5158-7-LP22</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>Mejoramiento Ex - FundiciónSector Ingeniería Mecánica Campus Ignacio Domeyko de la Universidad de La Serena</t>
+        </is>
+      </c>
+      <c r="D1929" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1929" s="2" t="n">
+        <v>44679.66666666666</v>
+      </c>
+      <c r="F1929" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5158-7-LP22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1929"/>
+  <dimension ref="A1:F1930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50530,6 +50530,32 @@
         </is>
       </c>
     </row>
+    <row r="1930">
+      <c r="A1930" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>1058085-12-LR22</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>Convenio Suministro de Lenalidomida cápsula por treinta y seis 36 meses para el Hospital del Salvador.</t>
+        </is>
+      </c>
+      <c r="D1930" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1930" s="2" t="n">
+        <v>44613.66666666666</v>
+      </c>
+      <c r="F1930" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1058085-12-LR22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1930"/>
+  <dimension ref="A1:F1950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50556,6 +50556,526 @@
         </is>
       </c>
     </row>
+    <row r="1931">
+      <c r="A1931" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>1171142-15-LE22</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>Lic 13-22 Adquisición Test Para la Detección de Sars Cov-2 Asociado a Equipo en Comodato para el Laboratorio Clínico</t>
+        </is>
+      </c>
+      <c r="D1931" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1931" s="2" t="n">
+        <v>44638.58333333334</v>
+      </c>
+      <c r="F1931" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1171142-15-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>1979-85-LQ22</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>98.22 MANTENCIÓN PREVENTIVA Y CORRECTIVA EQUIPOS CLINICOS I PARA NODO COSTERO: HOSPITAL DE NUEVA IMPERIAL.</t>
+        </is>
+      </c>
+      <c r="D1932" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1932" s="2" t="n">
+        <v>44669.66666666666</v>
+      </c>
+      <c r="F1932" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-85-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>5586-166-LE22</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>BC ADQUISICIÓN DE INSUMOS CLÍNICOS</t>
+        </is>
+      </c>
+      <c r="D1933" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1933" s="2" t="n">
+        <v>44699.625</v>
+      </c>
+      <c r="F1933" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5586-166-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>5586-181-LE22</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>BC ADQUISICIÓN DE SILLAS DE VISITA</t>
+        </is>
+      </c>
+      <c r="D1934" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1934" s="2" t="n">
+        <v>44701.625</v>
+      </c>
+      <c r="F1934" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5586-181-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>4497-17-LQ22</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>CONV. DE MANTENCIONES FLOTA VEHICULAR Y REPUESTOS</t>
+        </is>
+      </c>
+      <c r="D1935" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1935" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1935" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4497-17-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>5586-182-L122</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>B/C ADQUISICIÓN DE MOBILIARIO</t>
+        </is>
+      </c>
+      <c r="D1936" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1936" s="2" t="n">
+        <v>44700.625</v>
+      </c>
+      <c r="F1936" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5586-182-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2377-191-L122</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>40 UNIDADES PANELES LED 45 WATT Y 40 UNIDADES PANELES LED 70 WATTS - IDDOC 580014.-</t>
+        </is>
+      </c>
+      <c r="D1937" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1937" s="2" t="n">
+        <v>44708.54166666666</v>
+      </c>
+      <c r="F1937" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-191-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>3065-52-LE22</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE EQUIPO DE VUELO PARA LA AVIACIÓN NAVAL</t>
+        </is>
+      </c>
+      <c r="D1938" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1938" s="2" t="n">
+        <v>44679.66666666666</v>
+      </c>
+      <c r="F1938" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3065-52-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>1075952-2-LE22</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Servicio de Formación y Capacitación para la SES </t>
+        </is>
+      </c>
+      <c r="D1939" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1939" s="2" t="n">
+        <v>44725.625</v>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1075952-2-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2788-71-LP22</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>“ILUMINACION DE CRUCES PEATONALES DE LA COMUNA PAINE”</t>
+        </is>
+      </c>
+      <c r="D1940" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1940" s="2" t="n">
+        <v>44699.62569444445</v>
+      </c>
+      <c r="F1940" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2788-71-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>621-516-LE22</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AGUJA DE VERESS DESECHABLE 150 MM LARGO  1000016976  </t>
+        </is>
+      </c>
+      <c r="D1941" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1941" s="2" t="n">
+        <v>44699.66666666666</v>
+      </c>
+      <c r="F1941" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-516-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>1488-27-LP22</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>156-22 MEJORAMIENTO Y ADECUACIÓN UNIDAD DENTAL</t>
+        </is>
+      </c>
+      <c r="D1942" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1942" s="2" t="n">
+        <v>44672.625</v>
+      </c>
+      <c r="F1942" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1488-27-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2402-45-LP22</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>RECAMBIO DE LUMINARIAS VIALES EN VILLA BAQUEDANO</t>
+        </is>
+      </c>
+      <c r="D1943" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1943" s="2" t="n">
+        <v>44711.625</v>
+      </c>
+      <c r="F1943" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2402-45-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2583-153-L122</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S/P174 DIDECO " Servicio  Monitoreo y Mantención correctiva y preventiva  de Seguridad " sbn </t>
+        </is>
+      </c>
+      <c r="D1944" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1944" s="2" t="n">
+        <v>44728.66666666666</v>
+      </c>
+      <c r="F1944" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2583-153-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>1057494-30-LE22</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>Adquisicion de art. para la unidad de alimentación</t>
+        </is>
+      </c>
+      <c r="D1945" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1945" s="2" t="n">
+        <v>44680.66666666666</v>
+      </c>
+      <c r="F1945" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057494-30-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2680-7-LE22</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>DUPLICADORAS ESTABLECIMIENTOS</t>
+        </is>
+      </c>
+      <c r="D1946" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1946" s="2" t="n">
+        <v>44718.66666666666</v>
+      </c>
+      <c r="F1946" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2680-7-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2377-185-L122</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
+        </is>
+      </c>
+      <c r="D1947" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1947" s="2" t="n">
+        <v>44708.64652777778</v>
+      </c>
+      <c r="F1947" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-185-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>3288-19-LE22</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>COMPRA DE PASAJES AÉREOS EN RUTAS INTERNACIONALES</t>
+        </is>
+      </c>
+      <c r="D1948" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1948" s="2" t="n">
+        <v>44722.48958333334</v>
+      </c>
+      <c r="F1948" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3288-19-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>4378-16-LE22</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>Muebles gaveteros para farmacia</t>
+        </is>
+      </c>
+      <c r="D1949" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1949" s="2" t="n">
+        <v>44729.50972222222</v>
+      </c>
+      <c r="F1949" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4378-16-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2996-71-LE22</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>Remodelación PSR Las Ramadas</t>
+        </is>
+      </c>
+      <c r="D1950" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1950" s="2" t="n">
+        <v>44726.62847222222</v>
+      </c>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2996-71-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1950"/>
+  <dimension ref="A1:F1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51076,6 +51076,32 @@
         </is>
       </c>
     </row>
+    <row r="1951">
+      <c r="A1951" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>3117-15-LE21</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>CONFECCION E INSTALACION CORTINAS ROLLER</t>
+        </is>
+      </c>
+      <c r="D1951" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1951" s="2" t="n">
+        <v>44369.625</v>
+      </c>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3117-15-LE21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1951"/>
+  <dimension ref="A1:F1982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51102,6 +51102,812 @@
         </is>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>3801-9-LE22</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>Serv.de auditoria externa Municipalidad de Quilaco.</t>
+        </is>
+      </c>
+      <c r="D1952" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1952" s="2" t="n">
+        <v>44719.58333333334</v>
+      </c>
+      <c r="F1952" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3801-9-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>5240-65-LP22</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>MEDALLAS Y CONDECORACIONES 2022 PARA EL PERSONAL D</t>
+        </is>
+      </c>
+      <c r="D1953" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1953" s="2" t="n">
+        <v>44693.625</v>
+      </c>
+      <c r="F1953" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5240-65-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>1057506-27-LE22</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CAMAS ELECTRICAS HOSPITALIZADOS</t>
+        </is>
+      </c>
+      <c r="D1954" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1954" s="2" t="n">
+        <v>44732.82569444444</v>
+      </c>
+      <c r="F1954" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057506-27-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2287-71-LE22</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO DE PLAZA GUILLERMO FELIU</t>
+        </is>
+      </c>
+      <c r="D1955" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1955" s="2" t="n">
+        <v>44692.625</v>
+      </c>
+      <c r="F1955" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2287-71-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2111-124-LQ22</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>CATÉTER PARA MONITOREO ARTERIAL INVASIVO G20 X 8CM</t>
+        </is>
+      </c>
+      <c r="D1956" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1956" s="2" t="n">
+        <v>44713.625</v>
+      </c>
+      <c r="F1956" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-124-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2111-128-LE22</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>Adquisición carros de procedimientos de enfermería</t>
+        </is>
+      </c>
+      <c r="D1957" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1957" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F1957" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-128-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2111-108-LP22</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>SERVICIO DE ALMACENAJE CUSTODIA Y ADMINISTRACIÓN</t>
+        </is>
+      </c>
+      <c r="D1958" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1958" s="2" t="n">
+        <v>44713.625</v>
+      </c>
+      <c r="F1958" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-108-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>1532-27-LQ22</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>servicio de diagnostico y tratamiento retinopatia</t>
+        </is>
+      </c>
+      <c r="D1959" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1959" s="2" t="n">
+        <v>44719.7375</v>
+      </c>
+      <c r="F1959" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1532-27-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>4629-18-LE22</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>Trabajos Eléctricos IPT Rancagua</t>
+        </is>
+      </c>
+      <c r="D1960" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1960" s="2" t="n">
+        <v>44671.625</v>
+      </c>
+      <c r="F1960" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4629-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2377-183-L122</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>PROGRAMADOR VALVULA SELENOIDE MATERIAL PARA RIEGO TECNIFICADO - IDDOC 574230.-</t>
+        </is>
+      </c>
+      <c r="D1961" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1961" s="2" t="n">
+        <v>44704.63194444445</v>
+      </c>
+      <c r="F1961" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-183-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>1823-12-L122</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>SERVICIO DE ARRIENDO DE MODULOS  EN BASE A CONTENEDORES MARITIMOS DE 2” PARA CENTRO CIP CRC LIMACHE</t>
+        </is>
+      </c>
+      <c r="D1962" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1962" s="2" t="n">
+        <v>44721.70833333334</v>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1823-12-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>777304-23-LE22</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>INSUMOS IMAGENOLOGÍA SEGUNDO LLAMADO  PARA HLF</t>
+        </is>
+      </c>
+      <c r="D1963" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1963" s="2" t="n">
+        <v>44686.66666666666</v>
+      </c>
+      <c r="F1963" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=777304-23-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>1084156-22-LR22</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>Plan de Datos Bam Andalién Sur</t>
+        </is>
+      </c>
+      <c r="D1964" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1964" s="2" t="n">
+        <v>44641.66666666666</v>
+      </c>
+      <c r="F1964" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1084156-22-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>1641-68-LQ22</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IJA-SERVICIOS TENS Y AUXILIAR EXTENSIÓN HORARIA </t>
+        </is>
+      </c>
+      <c r="D1965" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1965" s="2" t="n">
+        <v>44670.66666666666</v>
+      </c>
+      <c r="F1965" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1641-68-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>812030-5-LQ22</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>MEDICAMENTOS FALTANTES CENABAST- ANESTÉSICOS</t>
+        </is>
+      </c>
+      <c r="D1966" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1966" s="2" t="n">
+        <v>44615.66666666666</v>
+      </c>
+      <c r="F1966" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=812030-5-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2409-302-L122</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>CAPACITACION PARA DOCENTES Y ASISTENTES DE LA EDUCACION ESCUELA G-911 LA LEYENDA</t>
+        </is>
+      </c>
+      <c r="D1967" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1967" s="2" t="n">
+        <v>44705.625</v>
+      </c>
+      <c r="F1967" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2409-302-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2702-14-LQ22</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>APERTURA Y MANTENCIÓN CUENTAS CORRIENTES</t>
+        </is>
+      </c>
+      <c r="D1968" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1968" s="2" t="n">
+        <v>44700.62847222222</v>
+      </c>
+      <c r="F1968" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2702-14-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2591-95-L122</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>ADQ. 20 CASILLEROS PARA  PERSONAL DE LA DIMAO</t>
+        </is>
+      </c>
+      <c r="D1969" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1969" s="2" t="n">
+        <v>44711.64791666667</v>
+      </c>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-95-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>5612-7-LE22</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>NOS - INSTALACIÓN PARCELAS DETECCIÓN PISSODES CASTANEUS Y OTROS SERVICIOS</t>
+        </is>
+      </c>
+      <c r="D1970" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1970" s="2" t="n">
+        <v>44727.62569444445</v>
+      </c>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5612-7-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>1069417-130-L122</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>ADQUSICIÓN DE UN SET DE PSICOMETRIA ADOS-2. ESCALA DE OBSERVACIÓN PARA EL DIAGNÓSTICO DEL AUTISMO - 2</t>
+        </is>
+      </c>
+      <c r="D1971" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1971" s="2" t="n">
+        <v>44707.71527777778</v>
+      </c>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1069417-130-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>525512-25-LE22</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>Equipamiento DAF</t>
+        </is>
+      </c>
+      <c r="D1972" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1972" s="2" t="n">
+        <v>44712.55625</v>
+      </c>
+      <c r="F1972" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=525512-25-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>1186229-14-LR22</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>SISTEMA DE REGISTRO CONTROL DE IDENTIFCACION</t>
+        </is>
+      </c>
+      <c r="D1973" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1973" s="2" t="n">
+        <v>44712.625</v>
+      </c>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1186229-14-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>704093-41-LE22</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>LP 39-2022 ASESORÍA ITO CALLE BLANCO QUILPUÉ</t>
+        </is>
+      </c>
+      <c r="D1974" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1974" s="2" t="n">
+        <v>44677.375</v>
+      </c>
+      <c r="F1974" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=704093-41-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>3864-23-L122</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>Compra servicios profesionales Terapeuta Ocupacion</t>
+        </is>
+      </c>
+      <c r="D1975" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1975" s="2" t="n">
+        <v>44706.78888888889</v>
+      </c>
+      <c r="F1975" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3864-23-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>3793-16-LE22</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO Y REPARACION DE PLANTA DE TRATAMIENT</t>
+        </is>
+      </c>
+      <c r="D1976" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1976" s="2" t="n">
+        <v>44718.63541666666</v>
+      </c>
+      <c r="F1976" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3793-16-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2656-107-L122</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN VESTUARIO</t>
+        </is>
+      </c>
+      <c r="D1977" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1977" s="2" t="n">
+        <v>44699.76875</v>
+      </c>
+      <c r="F1977" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2656-107-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>886954-205-LR21</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>Convenio Suministro Implante Coclear</t>
+        </is>
+      </c>
+      <c r="D1978" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1978" s="2" t="n">
+        <v>44616.66666666666</v>
+      </c>
+      <c r="F1978" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=886954-205-LR21</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2296-64-LE22</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>CONTRATACIÓN DE PROFESIONAL PARA EL LEVANTAMIENTO CATASTRO Y ANÁLISIS DE CÁMARAS DE TELEVIGILANCIA DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="D1979" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1979" s="2" t="n">
+        <v>44734.62569444445</v>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2296-64-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>886954-76-LQ22</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>CONVENIO SUMINISTRO TRANSDUCTORES DE PRESION</t>
+        </is>
+      </c>
+      <c r="D1980" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1980" s="2" t="n">
+        <v>44676.62569444445</v>
+      </c>
+      <c r="F1980" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=886954-76-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>660-3-LQ22</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>ESTUDIO DE PREFACTIBILIDAD MEJORAMIENTO POLIGONO</t>
+        </is>
+      </c>
+      <c r="D1981" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1981" s="2" t="n">
+        <v>44721.58333333334</v>
+      </c>
+      <c r="F1981" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=660-3-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>4457-12-LQ22</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>CONTRATO DE SUMINISTRO MANTENCION Y REPARACION  D</t>
+        </is>
+      </c>
+      <c r="D1982" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1982" s="2" t="n">
+        <v>44720.41666666666</v>
+      </c>
+      <c r="F1982" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4457-12-LQ22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1982"/>
+  <dimension ref="A1:F1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51908,6 +51908,58 @@
         </is>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>655-5-LE22</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>Capacitación para funcionarios Serviu Araucanía.</t>
+        </is>
+      </c>
+      <c r="D1983" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1983" s="2" t="n">
+        <v>44729.62569444445</v>
+      </c>
+      <c r="F1983" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=655-5-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2450-144-L122</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2do.proceso adquisicion de materiales de libreria </t>
+        </is>
+      </c>
+      <c r="D1984" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1984" s="2" t="n">
+        <v>44715.41736111111</v>
+      </c>
+      <c r="F1984" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2450-144-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1984"/>
+  <dimension ref="A1:F1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51960,6 +51960,32 @@
         </is>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>3069-1-L122</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMBIO DE TECHUMBRE </t>
+        </is>
+      </c>
+      <c r="D1985" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1985" s="2" t="n">
+        <v>44732.625</v>
+      </c>
+      <c r="F1985" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3069-1-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1985"/>
+  <dimension ref="A1:F1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51986,6 +51986,32 @@
         </is>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>3593-25-L122</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>Compra de alimentos en pellet caprino 14</t>
+        </is>
+      </c>
+      <c r="D1986" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1986" s="2" t="n">
+        <v>44732.66527777778</v>
+      </c>
+      <c r="F1986" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3593-25-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1986"/>
+  <dimension ref="A1:F2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52012,6 +52012,474 @@
         </is>
       </c>
     </row>
+    <row r="1987">
+      <c r="A1987" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>5482-24-LE22</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cursos de Capacitación a Usuarios-as OMIL 2022. </t>
+        </is>
+      </c>
+      <c r="D1987" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1987" s="2" t="n">
+        <v>44708.66666666666</v>
+      </c>
+      <c r="F1987" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5482-24-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>3885-31-LR22</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>RECOLECCIÓN DE RESIDUOS DOMICILIARIOSLIMPIEZA DE CALLES EN LAS LOCALIDADES DE PICA MATILLA VALLE DE QUISMACANCOSA Y LIRIMA ASEO A INMUEBLES MUNICIPALES MANTENCION Y OPERACIONES°</t>
+        </is>
+      </c>
+      <c r="D1988" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1988" s="2" t="n">
+        <v>44718.66666666666</v>
+      </c>
+      <c r="F1988" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3885-31-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>3885-32-LR22</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>“Servicio de mantención conservación y mejoramiento de jardines y áreas verdes en las localidades de Pica Matilla y Valle de Quisma</t>
+        </is>
+      </c>
+      <c r="D1989" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1989" s="2" t="n">
+        <v>44718.66666666666</v>
+      </c>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3885-32-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>948354-87-LE22</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE PALLET PLÁSTICOS PARA EL HOSPITAL DIPRECA</t>
+        </is>
+      </c>
+      <c r="D1990" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1990" s="2" t="n">
+        <v>44697.66666666666</v>
+      </c>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=948354-87-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>5403-6-LQ22</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>Servicio Arriendo de 73 Equipos Notebooks</t>
+        </is>
+      </c>
+      <c r="D1991" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1991" s="2" t="n">
+        <v>44707.75</v>
+      </c>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5403-6-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>1080936-26-LE22</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESCIPOL - ADQUISICIÓN DE SERVIDORES </t>
+        </is>
+      </c>
+      <c r="D1992" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1992" s="2" t="n">
+        <v>44711.62847222222</v>
+      </c>
+      <c r="F1992" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1080936-26-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>1057448-41-LR22</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>INFORMES PRESTACION DE SERVICIOS PROFESIONALES TOMA Y PROCESAMIENTO DE MUESTRAS COVID 19</t>
+        </is>
+      </c>
+      <c r="D1993" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1993" s="2" t="n">
+        <v>44651.625</v>
+      </c>
+      <c r="F1993" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057448-41-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>1049-18-LE22</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>SERVICIOS DE DESARROLLO PROYECTO DE ARQUITECTURA INGENIERIA Y ESPECIALIDADES PARA NUEVO EDIFICIO INSTITUCIONAL DEL INSTITUTO DE FOMENTO PESQUERO EN IQUIQUE</t>
+        </is>
+      </c>
+      <c r="D1994" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1994" s="2" t="n">
+        <v>44679.625</v>
+      </c>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1049-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>621-325-LR22</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOXINA BOTUL LIOF.P.SOL.INY FAM 200A500U  1000016883 </t>
+        </is>
+      </c>
+      <c r="D1995" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1995" s="2" t="n">
+        <v>44677.66666666666</v>
+      </c>
+      <c r="F1995" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-325-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>1084156-29-L122</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>CUENTA PÚBLICA SLEP DE ANDALIÉN SUR</t>
+        </is>
+      </c>
+      <c r="D1996" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1996" s="2" t="n">
+        <v>44650.70833333334</v>
+      </c>
+      <c r="F1996" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1084156-29-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>621-521-LE22</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TEST RAPIDO VIH 4° GENERACIÓN X KIT  1000017104 </t>
+        </is>
+      </c>
+      <c r="D1997" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1997" s="2" t="n">
+        <v>44704.66666666666</v>
+      </c>
+      <c r="F1997" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-521-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>1057536-53-LQ22</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>Servicios de mudanzas y transportes en camión</t>
+        </is>
+      </c>
+      <c r="D1998" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1998" s="2" t="n">
+        <v>44734.6875</v>
+      </c>
+      <c r="F1998" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057536-53-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>4375-48-LQ22</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>MANTENCIÓN Y HABILITACIÓN RECINTOS UCMS EX FORENSE DEL SERVICIO DE PSIQUIATRÍA HGGB</t>
+        </is>
+      </c>
+      <c r="D1999" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1999" s="2" t="n">
+        <v>44676.66666666666</v>
+      </c>
+      <c r="F1999" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4375-48-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>1641-8-LQ22</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>JLG - INSUMOS VARIOS PARA ENDOUROLOGÍA</t>
+        </is>
+      </c>
+      <c r="D2000" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2000" s="2" t="n">
+        <v>44678.66666666666</v>
+      </c>
+      <c r="F2000" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1641-8-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>1057498-4-LQ22</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE INSUMOS PARA ANÁLISIS DE ORINAS</t>
+        </is>
+      </c>
+      <c r="D2001" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2001" s="2" t="n">
+        <v>44617.5</v>
+      </c>
+      <c r="F2001" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057498-4-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2981-74-LQ22</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DGC - TARJETAS DE CANJE VESTUARIO DE DOMINIO </t>
+        </is>
+      </c>
+      <c r="D2002" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2002" s="2" t="n">
+        <v>44721.625</v>
+      </c>
+      <c r="F2002" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2981-74-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>547641-5-LE22</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>Adquisición Kits Sanitarios Alumnos de la Comuna</t>
+        </is>
+      </c>
+      <c r="D2003" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2003" s="2" t="n">
+        <v>44617.64652777778</v>
+      </c>
+      <c r="F2003" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=547641-5-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>1155-28-LE22</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>PROPOFOL 2% CON ENTREGA DE BOMBAS DE INFUSION</t>
+        </is>
+      </c>
+      <c r="D2004" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2004" s="2" t="n">
+        <v>44679.625</v>
+      </c>
+      <c r="F2004" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1155-28-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2004"/>
+  <dimension ref="A1:F2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52480,6 +52480,214 @@
         </is>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>1823-13-L122</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>Adquisición de WC Antivandálico / Fluxor oculto  para centro CIP CRC Limache, dependiente de esta Dirección Regional de Valparaíso, del Servicio Nacional de Menores.</t>
+        </is>
+      </c>
+      <c r="D2005" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2005" s="2" t="n">
+        <v>44728.70833333334</v>
+      </c>
+      <c r="F2005" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1823-13-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>4117-35-L122</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE UN COMPUTADOR DE ESCRITORIO PARA PROGRAMA SOCIAL</t>
+        </is>
+      </c>
+      <c r="D2006" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2006" s="2" t="n">
+        <v>44726.42708333334</v>
+      </c>
+      <c r="F2006" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4117-35-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2405-54-LQ22</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE UN CAMIÓN TRACTOR JARDIN</t>
+        </is>
+      </c>
+      <c r="D2007" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2007" s="2" t="n">
+        <v>44680.375</v>
+      </c>
+      <c r="F2007" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2405-54-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>2380-17-LE22</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE MATERIALES DE OFICINA STOCK BODEGA</t>
+        </is>
+      </c>
+      <c r="D2008" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2008" s="2" t="n">
+        <v>44713.375</v>
+      </c>
+      <c r="F2008" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2380-17-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2656-80-LE22</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>CONFECCION DE UNIFORMES PERSONAL MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="D2009" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2009" s="2" t="n">
+        <v>44679.69236111111</v>
+      </c>
+      <c r="F2009" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2656-80-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>4058-7-LE22</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>CONVENIO SUMINISTRO POR SERVICIOS DE LUBRICENTROS.</t>
+        </is>
+      </c>
+      <c r="D2010" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2010" s="2" t="n">
+        <v>44725.67916666667</v>
+      </c>
+      <c r="F2010" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4058-7-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>3844-10-LE22</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADQUISICION SERVICIO DE OBRAS MENORES JENAMIG </t>
+        </is>
+      </c>
+      <c r="D2011" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2011" s="2" t="n">
+        <v>44735.79236111111</v>
+      </c>
+      <c r="F2011" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3844-10-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>1718-16-L122</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>MATERIALES DE CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="D2012" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2012" s="2" t="n">
+        <v>44693.75</v>
+      </c>
+      <c r="F2012" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1718-16-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2012"/>
+  <dimension ref="A1:F2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52688,6 +52688,890 @@
         </is>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>622-61-L122</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>CONTRATACIÓN DE CURSO “QLIK SENSE"</t>
+        </is>
+      </c>
+      <c r="D2013" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2013" s="2" t="n">
+        <v>44728.625</v>
+      </c>
+      <c r="F2013" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=622-61-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>517873-9-LQ22</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>NORMALIZACIÓN ELÉCTRICA EDIFICIO MEDICINA PREVENTI</t>
+        </is>
+      </c>
+      <c r="D2014" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2014" s="2" t="n">
+        <v>44721.5</v>
+      </c>
+      <c r="F2014" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=517873-9-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>1002584-8-LR22</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>SERVICIO DE PROFESIONALES DE TECNOLOGÍAS DE INFORM</t>
+        </is>
+      </c>
+      <c r="D2015" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2015" s="2" t="n">
+        <v>44650.66666666666</v>
+      </c>
+      <c r="F2015" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1002584-8-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2591-76-LE22</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>CONTRATO SUMINISTRO CONTINUO 600 CAJAS MERCADERIA</t>
+        </is>
+      </c>
+      <c r="D2016" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2016" s="2" t="n">
+        <v>44690.66666666666</v>
+      </c>
+      <c r="F2016" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2591-76-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>948806-20-LQ22</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADQUISICIÓN DE KIT ARTROPLASTIA DE HOMBRO DEGENERATIVO EN MODALIDAD DE CONSIGNACIÓN POR SISTEMA DE SUMINISTRO PARA EL HOSPITAL DIPRECA </t>
+        </is>
+      </c>
+      <c r="D2017" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2017" s="2" t="n">
+        <v>44655.66666666666</v>
+      </c>
+      <c r="F2017" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=948806-20-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>1754-16-LE22</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE ECÓGRAFO PARA LA COMUNA DE PARRAL</t>
+        </is>
+      </c>
+      <c r="D2018" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2018" s="2" t="n">
+        <v>44718.66666666666</v>
+      </c>
+      <c r="F2018" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1754-16-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>3143-21-LP22</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>Instalación Luminarias Fotovoltaicas Sector Poniente comuna de Lago Ranco</t>
+        </is>
+      </c>
+      <c r="D2019" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2019" s="2" t="n">
+        <v>44725.65</v>
+      </c>
+      <c r="F2019" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3143-21-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>4525-53-L122</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATERIAL DE REPARACION COLEGIO REPUBLICA DEL PERU </t>
+        </is>
+      </c>
+      <c r="D2020" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2020" s="2" t="n">
+        <v>44726.6375</v>
+      </c>
+      <c r="F2020" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4525-53-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>4703-18-L122</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>INVERNADERO TUNEL EL CRISTO FIEP</t>
+        </is>
+      </c>
+      <c r="D2021" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2021" s="2" t="n">
+        <v>44683.75833333333</v>
+      </c>
+      <c r="F2021" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4703-18-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>591376-20-LE22</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>Producción Expo Tejidos 2022</t>
+        </is>
+      </c>
+      <c r="D2022" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2022" s="2" t="n">
+        <v>44735.5</v>
+      </c>
+      <c r="F2022" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=591376-20-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>2048-16-LE22</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SERVICIO CENTRO DE CUIDADOS INFANTIL</t>
+        </is>
+      </c>
+      <c r="D2023" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2023" s="2" t="n">
+        <v>44708.70833333334</v>
+      </c>
+      <c r="F2023" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2048-16-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>2111-154-LQ22</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE APÓSITOS II PARA EL H.U.A.P.</t>
+        </is>
+      </c>
+      <c r="D2024" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2024" s="2" t="n">
+        <v>44722.625</v>
+      </c>
+      <c r="F2024" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-154-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>2429-13-LP22</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE LICENCIAS DE SOFTWARE PARA LA ILUSTRE MUNICIPALIDAD DE ANTOFAGASTA</t>
+        </is>
+      </c>
+      <c r="D2025" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2025" s="2" t="n">
+        <v>44670.41666666666</v>
+      </c>
+      <c r="F2025" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2429-13-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>2827-29-LR22</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENCION DE ALUMBRADO PUBLICO</t>
+        </is>
+      </c>
+      <c r="D2026" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2026" s="2" t="n">
+        <v>44684.41666666666</v>
+      </c>
+      <c r="F2026" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2827-29-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>2279-40-LE22</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>SP 228 SOPORTE Y SUSCRIPCION DE LICENCIAS</t>
+        </is>
+      </c>
+      <c r="D2027" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2027" s="2" t="n">
+        <v>44715.72916666666</v>
+      </c>
+      <c r="F2027" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2279-40-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>2656-97-LE22</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE PARKAS DE MUJERES Y HOMBRES</t>
+        </is>
+      </c>
+      <c r="D2028" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2028" s="2" t="n">
+        <v>44698.43472222222</v>
+      </c>
+      <c r="F2028" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2656-97-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>2402-51-LP22</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO Y ESTANDARIZACIÓN DE CICLOVÍAS EJE MIGUEL RAMÍREZ Y BOMBERO VILLALOBOS RANCAGUA.</t>
+        </is>
+      </c>
+      <c r="D2029" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2029" s="2" t="n">
+        <v>44727.41666666666</v>
+      </c>
+      <c r="F2029" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2402-51-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>1057536-56-B222</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>Arriendo Ambulancia + Desfibrilador Hosp. Calbuco</t>
+        </is>
+      </c>
+      <c r="D2030" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2030" s="2" t="n">
+        <v>44714.70833333334</v>
+      </c>
+      <c r="F2030" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057536-56-B222</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>4559-25-L122</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>ALCOHOL GEL</t>
+        </is>
+      </c>
+      <c r="D2031" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2031" s="2" t="n">
+        <v>44734.64583333334</v>
+      </c>
+      <c r="F2031" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4559-25-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>846-21-LE22</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>CMEE: SC 47231: REPOSICIÓN J.I. LOS DELFINCITOS</t>
+        </is>
+      </c>
+      <c r="D2032" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2032" s="2" t="n">
+        <v>44736.69305555556</v>
+      </c>
+      <c r="F2032" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=846-21-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2831-15-LP22</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>Suministro instalación mantención monitoreo alarmas</t>
+        </is>
+      </c>
+      <c r="D2033" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2033" s="2" t="n">
+        <v>44718.625</v>
+      </c>
+      <c r="F2033" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2831-15-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>625-17-L122</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>070_01/2022_Adquisicion de Mochila de Asalto</t>
+        </is>
+      </c>
+      <c r="D2034" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2034" s="2" t="n">
+        <v>44726.625</v>
+      </c>
+      <c r="F2034" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=625-17-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2656-96-LE22</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN UNIFORMES</t>
+        </is>
+      </c>
+      <c r="D2035" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2035" s="2" t="n">
+        <v>44697.67777777778</v>
+      </c>
+      <c r="F2035" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2656-96-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2483-130-LE22</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>Adquisición de Equipamiento Técnico de Amplificación y Otros para el Centro de Producción Musical y Centro Cultural Municipal</t>
+        </is>
+      </c>
+      <c r="D2036" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2036" s="2" t="n">
+        <v>44683.62569444445</v>
+      </c>
+      <c r="F2036" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2483-130-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2585-20-LE22</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>ADQ. TÓNER Y TINTAS ORD 1982-21 DIDECO CAF IMA</t>
+        </is>
+      </c>
+      <c r="D2037" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2037" s="2" t="n">
+        <v>44665.625</v>
+      </c>
+      <c r="F2037" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2585-20-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2268-14-LE22</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>Servicio de Control de plagas y sanitización</t>
+        </is>
+      </c>
+      <c r="D2038" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2038" s="2" t="n">
+        <v>44721.66666666666</v>
+      </c>
+      <c r="F2038" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2268-14-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>229-85-LE22</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN UNIFORMES VARONES OTOÑO-INVIERNO 2022</t>
+        </is>
+      </c>
+      <c r="D2039" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2039" s="2" t="n">
+        <v>44711.62569444445</v>
+      </c>
+      <c r="F2039" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=229-85-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>3666-18-LE22</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t xml:space="preserve">arriendo de camión con agua y abastecimiento y compra de agua </t>
+        </is>
+      </c>
+      <c r="D2040" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2040" s="2" t="n">
+        <v>44736.41666666666</v>
+      </c>
+      <c r="F2040" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3666-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>993-72-LE22</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8  días máquina de Camión Lechador  </t>
+        </is>
+      </c>
+      <c r="D2041" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2041" s="2" t="n">
+        <v>44728.60069444445</v>
+      </c>
+      <c r="F2041" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=993-72-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2585-58-LE22</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>ADQ. PRODUCTOS PARA BAÑOS DIDECO ORD N° 5642022 LSV IMA</t>
+        </is>
+      </c>
+      <c r="D2042" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2042" s="2" t="n">
+        <v>44679.625</v>
+      </c>
+      <c r="F2042" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2585-58-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>986278-6-LP22</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMINISTRO DE SOFTWARE PARA FINES EDUCACIONALES </t>
+        </is>
+      </c>
+      <c r="D2043" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2043" s="2" t="n">
+        <v>44715.41666666666</v>
+      </c>
+      <c r="F2043" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=986278-6-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>4117-22-L122</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>Adquisición de un Computador de Escritorio</t>
+        </is>
+      </c>
+      <c r="D2044" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2044" s="2" t="n">
+        <v>44697.64583333334</v>
+      </c>
+      <c r="F2044" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4117-22-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>3902-48-LE22</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>SERV DE ESTERILIZACIÓN Y AT. SANITARIA DE MASCOTAS</t>
+        </is>
+      </c>
+      <c r="D2045" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2045" s="2" t="n">
+        <v>44690.66666666666</v>
+      </c>
+      <c r="F2045" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3902-48-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2440-137-LE22</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mejoramiento de Recintos Especialidad en Mecánica Industrial para el Establecimiento Educacional Liceo Politécnico Curicó  </t>
+        </is>
+      </c>
+      <c r="D2046" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2046" s="2" t="n">
+        <v>44700.78402777778</v>
+      </c>
+      <c r="F2046" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2440-137-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2046"/>
+  <dimension ref="A1:F2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53572,6 +53572,370 @@
         </is>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2735-54-LQ22</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PAPELERÍA MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="D2047" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2047" s="2" t="n">
+        <v>44679.62569444445</v>
+      </c>
+      <c r="F2047" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2735-54-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>4255-7-L122</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENCIÓN Y REPARACIÓN VEHÍCULOS 2022</t>
+        </is>
+      </c>
+      <c r="D2048" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2048" s="2" t="n">
+        <v>44726.62569444445</v>
+      </c>
+      <c r="F2048" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4255-7-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>4439-1-LE22</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>Serv. de Aseo y Mantención MAPSE y CMN de IPC</t>
+        </is>
+      </c>
+      <c r="D2049" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2049" s="2" t="n">
+        <v>44725.72916666666</v>
+      </c>
+      <c r="F2049" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4439-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2306-40-LE22</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>Mantención de grupo electrógeno del liceo Rahue</t>
+        </is>
+      </c>
+      <c r="D2050" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2050" s="2" t="n">
+        <v>44676.64583333334</v>
+      </c>
+      <c r="F2050" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2306-40-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>3252-40-L122</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE UTILES ESCOLARES ESCUELA DE QUILICURA, SEGUN DETALLE ADJUNTO</t>
+        </is>
+      </c>
+      <c r="D2051" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2051" s="2" t="n">
+        <v>44732.89444444444</v>
+      </c>
+      <c r="F2051" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3252-40-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>3251-9-L122</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondo de Ojo a pacientes diabéticos </t>
+        </is>
+      </c>
+      <c r="D2052" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2052" s="2" t="n">
+        <v>44720.70138888889</v>
+      </c>
+      <c r="F2052" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3251-9-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>948354-69-L122</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE CAJAS DE SEGURIDAD PARA EL HOSPITAL DIPRECA</t>
+        </is>
+      </c>
+      <c r="D2053" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2053" s="2" t="n">
+        <v>44699.66666666666</v>
+      </c>
+      <c r="F2053" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=948354-69-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2770-38-LE22</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENCIONES DE ASCENSORES DE LOS ESTABLECIMIENTOS DEPENDIENTES DE LA DIRECCIÓN DE SALUD MUNICIPAL DE LA I. MUNICIPALIDAD DE MAIPÚ</t>
+        </is>
+      </c>
+      <c r="D2054" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2054" s="2" t="n">
+        <v>44683.70833333334</v>
+      </c>
+      <c r="F2054" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2770-38-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2422-328-L122</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>SOLICITUD  936981  MALLA ROLLO BISCOCHO MOD. 6010 ROLLO 2 MT. X  3.4 MM</t>
+        </is>
+      </c>
+      <c r="D2055" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2055" s="2" t="n">
+        <v>44718.62847222222</v>
+      </c>
+      <c r="F2055" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-328-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>638-5-LQ22</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>DIVERSOS DISEÑOS DE INGENIERIA PUNTA ARENAS REGIÓN DE MAGALLANES Y DE LA ANTÁRTICA CHILENA</t>
+        </is>
+      </c>
+      <c r="D2056" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2056" s="2" t="n">
+        <v>44713.41666666666</v>
+      </c>
+      <c r="F2056" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=638-5-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2734-12-LE22</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>SUMINISTRO CINTAS DE GLICEMIA Y COLESTEROL</t>
+        </is>
+      </c>
+      <c r="D2057" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2057" s="2" t="n">
+        <v>44720.625</v>
+      </c>
+      <c r="F2057" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2734-12-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2359-22-LQ22</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>Concesión Sistema de Control de Estacionamientos</t>
+        </is>
+      </c>
+      <c r="D2058" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2058" s="2" t="n">
+        <v>44713.5</v>
+      </c>
+      <c r="F2058" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2359-22-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>1191688-48-LE22</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>Pórticos de Control Vehicular</t>
+        </is>
+      </c>
+      <c r="D2059" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2059" s="2" t="n">
+        <v>44699.725</v>
+      </c>
+      <c r="F2059" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1191688-48-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>900-30-LE22</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>Servicios para  Reparación de Techumbre</t>
+        </is>
+      </c>
+      <c r="D2060" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2060" s="2" t="n">
+        <v>44742.5</v>
+      </c>
+      <c r="F2060" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=900-30-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2060"/>
+  <dimension ref="A1:F2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53936,6 +53936,58 @@
         </is>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>4642-32-LP22</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contratación del servicio de reparación y  mantención preventiva  de 2 dos equipos chiller y 1 un sistema piping de cargo del Policlínico del Hospital de Carabineros. </t>
+        </is>
+      </c>
+      <c r="D2061" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2061" s="2" t="n">
+        <v>44705.70833333334</v>
+      </c>
+      <c r="F2061" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4642-32-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" s="2" t="n">
+        <v>44744</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2328-202-L122</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNIDAD DE IMPRESIÓN TÓNER, TINTAS Y COMSUMIBLES FICHAS 14504 Y 14543 </t>
+        </is>
+      </c>
+      <c r="D2062" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2062" s="2" t="n">
+        <v>44742.69236111111</v>
+      </c>
+      <c r="F2062" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2328-202-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2062"/>
+  <dimension ref="A1:F2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53988,6 +53988,708 @@
         </is>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>776-10-LE22</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>Sumi. de pescados y mariscos frescos y congelados</t>
+        </is>
+      </c>
+      <c r="D2063" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2063" s="2" t="n">
+        <v>44715.66666666666</v>
+      </c>
+      <c r="F2063" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=776-10-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2705-49-LQ22</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO ILUMINACION CAMPUS FDO MAY Y LA CASTI</t>
+        </is>
+      </c>
+      <c r="D2064" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2064" s="2" t="n">
+        <v>44706.83333333334</v>
+      </c>
+      <c r="F2064" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2705-49-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2111-125-LQ22</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>BAJADAS DE NUTRICIÓN ENTERAL CON BOMBAS EN COMODAT</t>
+        </is>
+      </c>
+      <c r="D2065" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2065" s="2" t="n">
+        <v>44725.625</v>
+      </c>
+      <c r="F2065" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-125-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>3199-13-LP22</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>ASISTENCIA LEGAL Y SANEAMIENTO SECTORES DE LA PAZ</t>
+        </is>
+      </c>
+      <c r="D2066" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2066" s="2" t="n">
+        <v>44719.58333333334</v>
+      </c>
+      <c r="F2066" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3199-13-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>858-33-L122</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>Servicio de Mantención Preventiva Equipo Electrógeno y Subestación Eléctrica por 24 Meses, Estadio Víctor Jara</t>
+        </is>
+      </c>
+      <c r="D2067" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2067" s="2" t="n">
+        <v>44736.62569444445</v>
+      </c>
+      <c r="F2067" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=858-33-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2216-44-O121</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>AIF Mejoramiento Sistema Oriente - Poniente</t>
+        </is>
+      </c>
+      <c r="D2068" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2068" s="2" t="n">
+        <v>44586.41666666666</v>
+      </c>
+      <c r="F2068" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-44-O121</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2111-165-LE22</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE 1 CAMA BARIATRICA PARA EL HUAP</t>
+        </is>
+      </c>
+      <c r="D2069" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2069" s="2" t="n">
+        <v>44725.625</v>
+      </c>
+      <c r="F2069" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-165-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>1057390-32-LE22</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>INSTALACIÓN ELÉCTRICA SAMU VICTORIA</t>
+        </is>
+      </c>
+      <c r="D2070" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2070" s="2" t="n">
+        <v>44725.66666666666</v>
+      </c>
+      <c r="F2070" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057390-32-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2111-155-LQ22</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>PAPEL DE ESTERILIZACIÓN</t>
+        </is>
+      </c>
+      <c r="D2071" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2071" s="2" t="n">
+        <v>44725.625</v>
+      </c>
+      <c r="F2071" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-155-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>1069417-156-L122</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>MANTENCION DE CALDERA  DEL CESFAM ULTRAESTACION</t>
+        </is>
+      </c>
+      <c r="D2072" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2072" s="2" t="n">
+        <v>44735.62569444445</v>
+      </c>
+      <c r="F2072" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1069417-156-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>4375-73-LE22</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE MAQUINAS DE COSER</t>
+        </is>
+      </c>
+      <c r="D2073" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2073" s="2" t="n">
+        <v>44684.70833333334</v>
+      </c>
+      <c r="F2073" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4375-73-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>621-349-LR22</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TUBO SILICONA 8 MM  X 12 MM DE RO 25 M   1000016865 </t>
+        </is>
+      </c>
+      <c r="D2074" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2074" s="2" t="n">
+        <v>44683.66666666666</v>
+      </c>
+      <c r="F2074" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-349-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>4170-53-LE22</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAJAS DE ALIMENTOS </t>
+        </is>
+      </c>
+      <c r="D2075" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2075" s="2" t="n">
+        <v>44732.625</v>
+      </c>
+      <c r="F2075" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4170-53-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>1380-72-L122</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>PPTA 147-22 ADQUISICIÓN DE INSTRUMENTAL QUIRÚRGICO PARA EL SERVICIO DE ENDOSCOPIA</t>
+        </is>
+      </c>
+      <c r="D2076" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2076" s="2" t="n">
+        <v>44656.625</v>
+      </c>
+      <c r="F2076" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-72-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>4375-55-LP22</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>ROPA DE CONFECCIÓN EXTERNA PARA SERVICIO DE LAVANDERÍA</t>
+        </is>
+      </c>
+      <c r="D2077" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2077" s="2" t="n">
+        <v>44683.66666666666</v>
+      </c>
+      <c r="F2077" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4375-55-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>1614-12-LE22</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>Servicio de reparaciones menores en oficinas SEC La Serena</t>
+        </is>
+      </c>
+      <c r="D2078" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2078" s="2" t="n">
+        <v>44715.67847222222</v>
+      </c>
+      <c r="F2078" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1614-12-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>3024-53-L122</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>Materiales de Libreria para Escuela El Bonito</t>
+        </is>
+      </c>
+      <c r="D2079" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2079" s="2" t="n">
+        <v>44725.65277777778</v>
+      </c>
+      <c r="F2079" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3024-53-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2422-338-L122</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOLICITUD  937060  REJILLA DE ACERO LAMINADO 0.98 CM. DE LARGO X 0.41 CM DE ANCHO </t>
+        </is>
+      </c>
+      <c r="D2080" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2080" s="2" t="n">
+        <v>44725.63194444445</v>
+      </c>
+      <c r="F2080" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-338-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>1459-13-LE22</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>Reparaciones de instalaciones para Personal Fiscal</t>
+        </is>
+      </c>
+      <c r="D2081" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2081" s="2" t="n">
+        <v>44741.63055555556</v>
+      </c>
+      <c r="F2081" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1459-13-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>1057492-40-LP22</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>SUM E INST UNID MANEJAD AIRE</t>
+        </is>
+      </c>
+      <c r="D2082" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2082" s="2" t="n">
+        <v>44692.625</v>
+      </c>
+      <c r="F2082" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057492-40-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2291-41-L122</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>NP 142 DIDECO CAMAS Y MUEBLES</t>
+        </is>
+      </c>
+      <c r="D2083" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2083" s="2" t="n">
+        <v>44714.62361111111</v>
+      </c>
+      <c r="F2083" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2291-41-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>994-9-LQ22</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>CONTRATO MAESTRANZA METAL MECANICA PROV. DE HUASCO VIALIDAD ATACAMA</t>
+        </is>
+      </c>
+      <c r="D2084" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2084" s="2" t="n">
+        <v>44701.81111111111</v>
+      </c>
+      <c r="F2084" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=994-9-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2704-120-L122</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>COMPRA DE PROYECTORES DE VIDEO (S/C 1134)</t>
+        </is>
+      </c>
+      <c r="D2085" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2085" s="2" t="n">
+        <v>44714.99930555555</v>
+      </c>
+      <c r="F2085" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2704-120-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>1057417-85-LE22</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADQUISICIÓN DE EQUIPOS MÉDICOS LARINGOSCOPIOS PARA EL CAVRR 2° LLAMADO MSS </t>
+        </is>
+      </c>
+      <c r="D2086" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2086" s="2" t="n">
+        <v>44677.70833333334</v>
+      </c>
+      <c r="F2086" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057417-85-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>1613-5-LE22</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>MANTENCIÓN PREVENTIVA Y CORRECTIVA BOMBAS DE AGUA</t>
+        </is>
+      </c>
+      <c r="D2087" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2087" s="2" t="n">
+        <v>44735.66666666666</v>
+      </c>
+      <c r="F2087" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1613-5-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>3656-66-LP22</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>MEJORAMIENTO  PLAZA VILLA AMERICA DE REQUINOA</t>
+        </is>
+      </c>
+      <c r="D2088" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2088" s="2" t="n">
+        <v>44734.64583333334</v>
+      </c>
+      <c r="F2088" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3656-66-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>994-10-LQ22</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>CONTRATO MANTENCION Y REPARACION EQUIPOS JOHN DEERE-HAMN Y RENAULT</t>
+        </is>
+      </c>
+      <c r="D2089" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2089" s="2" t="n">
+        <v>44701.79652777778</v>
+      </c>
+      <c r="F2089" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=994-10-LQ22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2089"/>
+  <dimension ref="A1:F2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54690,6 +54690,162 @@
         </is>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>636813-8-L122</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MOVILIZACIÓN POSTRADOS</t>
+        </is>
+      </c>
+      <c r="D2090" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2090" s="2" t="n">
+        <v>44746.67708333334</v>
+      </c>
+      <c r="F2090" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=636813-8-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>757818-6-L122</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>COMPRA DE 200 CANASTAS DE ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="D2091" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2091" s="2" t="n">
+        <v>44742.50694444445</v>
+      </c>
+      <c r="F2091" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=757818-6-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>1057503-14-LE22</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>AGUJAS ENDOSCOPICAS PARA BIOPSIA</t>
+        </is>
+      </c>
+      <c r="D2092" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2092" s="2" t="n">
+        <v>44714.66666666666</v>
+      </c>
+      <c r="F2092" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057503-14-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>836575-8-LE22</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>CMCP ADQ. DE MENAJE PARA OFICINA CASINO Y OTROS</t>
+        </is>
+      </c>
+      <c r="D2093" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2093" s="2" t="n">
+        <v>44741.66666666666</v>
+      </c>
+      <c r="F2093" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=836575-8-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2757-38-L122</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN INSTRUMENTAL MEDICO PARA USO RED DE SALUD, CONVENIO SALUD MENTAL EN APS</t>
+        </is>
+      </c>
+      <c r="D2094" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2094" s="2" t="n">
+        <v>44732.70833333334</v>
+      </c>
+      <c r="F2094" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2757-38-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>3241-24-LE22</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>SERVICIO REEMPLAZO TECHUMBRES VIVIENDAS FISCALES</t>
+        </is>
+      </c>
+      <c r="D2095" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2095" s="2" t="n">
+        <v>44729.62777777778</v>
+      </c>
+      <c r="F2095" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3241-24-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2095"/>
+  <dimension ref="A1:F2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54846,6 +54846,604 @@
         </is>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>4367-16-L122</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>Equipos Computacionales Departamento de Salud Municipal de Quillón</t>
+        </is>
+      </c>
+      <c r="D2096" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2096" s="2" t="n">
+        <v>44732.625</v>
+      </c>
+      <c r="F2096" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4367-16-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>1133353-13-LQ22</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>CAMBIO DE LUMINARIAS SECTORES QUICHARCO EL PLUMERO Y EL PARRON COMUNA DE RAUCO.</t>
+        </is>
+      </c>
+      <c r="D2097" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2097" s="2" t="n">
+        <v>44707.64583333334</v>
+      </c>
+      <c r="F2097" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1133353-13-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>1057901-5-LE22</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>Adquisición de Selladora para Esterilización</t>
+        </is>
+      </c>
+      <c r="D2098" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2098" s="2" t="n">
+        <v>44742.83055555556</v>
+      </c>
+      <c r="F2098" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057901-5-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2345-126-LE22</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN MOBILIARIO OFICINA</t>
+        </is>
+      </c>
+      <c r="D2099" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2099" s="2" t="n">
+        <v>44734.66666666666</v>
+      </c>
+      <c r="F2099" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2345-126-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>1079445-47-L122</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE REPUESTOS PARA VEHICULOS POLICIALES CONVENCIONALES XII ZONA MAGALLANES Y ANT. CHILENA</t>
+        </is>
+      </c>
+      <c r="D2100" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2100" s="2" t="n">
+        <v>44747.78541666667</v>
+      </c>
+      <c r="F2100" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079445-47-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2392-6-LE22</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>Plataforma Educativa para Escuelas de la Comuna</t>
+        </is>
+      </c>
+      <c r="D2101" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2101" s="2" t="n">
+        <v>44692.66597222222</v>
+      </c>
+      <c r="F2101" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2392-6-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>928-8-L122</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>SERVICIO DE DESRATIZACIÓN RECINTOS COURT CENTRAL DE TENIS Y ESTADIO ATLÉTICO MARIO RECORDÓN ESTADIO NACIONAL PARA CERTIFICACIÓN PREVIA PARA DEMOLICIÓN</t>
+        </is>
+      </c>
+      <c r="D2102" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2102" s="2" t="n">
+        <v>44741.70416666667</v>
+      </c>
+      <c r="F2102" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=928-8-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>636813-9-LE22</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MOVILIZACIÓN HOSPITALIZACIÓN DOMICILIA</t>
+        </is>
+      </c>
+      <c r="D2103" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2103" s="2" t="n">
+        <v>44746.82430555556</v>
+      </c>
+      <c r="F2103" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=636813-9-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>1459-14-LE22</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reparaciones de Cobertizos Caseta Y Cercos </t>
+        </is>
+      </c>
+      <c r="D2104" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2104" s="2" t="n">
+        <v>44746.68125</v>
+      </c>
+      <c r="F2104" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1459-14-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>1058094-3-LQ22</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE NUTRICIÓN PARENTERAL</t>
+        </is>
+      </c>
+      <c r="D2105" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2105" s="2" t="n">
+        <v>44629.5</v>
+      </c>
+      <c r="F2105" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1058094-3-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>1079445-44-LE22</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>ADQ. TONER XII ZONA MAGALLANES</t>
+        </is>
+      </c>
+      <c r="D2106" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2106" s="2" t="n">
+        <v>44740.78055555555</v>
+      </c>
+      <c r="F2106" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079445-44-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>1186229-20-LR22</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>Admin y operación plataforma HP NONSTOP DATACENTER</t>
+        </is>
+      </c>
+      <c r="D2107" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2107" s="2" t="n">
+        <v>44720.625</v>
+      </c>
+      <c r="F2107" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1186229-20-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>1987-6-LE22</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>ARRIENDO EMBARCACION CON HABITABILIDAD- LOS LAGOS</t>
+        </is>
+      </c>
+      <c r="D2108" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2108" s="2" t="n">
+        <v>44736.64583333334</v>
+      </c>
+      <c r="F2108" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1987-6-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>3621-53-L122</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>COMPRA DE INSUMOS VETERINARIOS</t>
+        </is>
+      </c>
+      <c r="D2109" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2109" s="2" t="n">
+        <v>44741.39583333334</v>
+      </c>
+      <c r="F2109" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3621-53-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>1092-7-LE22</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>Serv. Prof. Extensionista Forestal Prov. Coyhaique</t>
+        </is>
+      </c>
+      <c r="D2110" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2110" s="2" t="n">
+        <v>44712.77847222222</v>
+      </c>
+      <c r="F2110" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1092-7-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>1605-34-L122</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>L1-98 curso Scrum Master</t>
+        </is>
+      </c>
+      <c r="D2111" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2111" s="2" t="n">
+        <v>44713.66666666666</v>
+      </c>
+      <c r="F2111" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1605-34-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>759035-9-LQ22</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>Convenio de Arrendamiento de Catres Clínicos HRC.</t>
+        </is>
+      </c>
+      <c r="D2112" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2112" s="2" t="n">
+        <v>44735.72916666666</v>
+      </c>
+      <c r="F2112" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=759035-9-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>3977-62-LE22</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>Exámenes Imagenológicos Resol. 1760 Convenio Imágenes Diagnósticas 2022</t>
+        </is>
+      </c>
+      <c r="D2113" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2113" s="2" t="n">
+        <v>44743.50138888889</v>
+      </c>
+      <c r="F2113" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3977-62-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>4353-8-LE22</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>ELABORACION DISEÑOS DE PAVIMENTACION PJE. AGUAS CALIENTES POB. J.S.OSSA PJE. LAS BRISAS Y FRESIA POB. A. SUR</t>
+        </is>
+      </c>
+      <c r="D2114" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2114" s="2" t="n">
+        <v>44735.54166666666</v>
+      </c>
+      <c r="F2114" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4353-8-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>1992-11-L122</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>Sillas de Ruedas Hospital de Toltén</t>
+        </is>
+      </c>
+      <c r="D2115" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2115" s="2" t="n">
+        <v>44728.64583333334</v>
+      </c>
+      <c r="F2115" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1992-11-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>1058094-2-LQ22</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE ANESTÉSICOS CON EQUIPO EN COMODATO</t>
+        </is>
+      </c>
+      <c r="D2116" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2116" s="2" t="n">
+        <v>44629.5</v>
+      </c>
+      <c r="F2116" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1058094-2-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>1057490-35-LE22</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>Mantención y reparación de extintores</t>
+        </is>
+      </c>
+      <c r="D2117" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2117" s="2" t="n">
+        <v>44704.62916666667</v>
+      </c>
+      <c r="F2117" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057490-35-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>846-22-LE22</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMEE: SC 47231: REPOSICIÓN J.I. LOS DELFINCITOS</t>
+        </is>
+      </c>
+      <c r="D2118" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2118" s="2" t="n">
+        <v>44742.51111111111</v>
+      </c>
+      <c r="F2118" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=846-22-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2118"/>
+  <dimension ref="A1:F2119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55444,6 +55444,32 @@
         </is>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>3637-30-LP22</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERVICIO DE RECOLECCIÓN TRANSPORTE Y DISPOSICIÓN </t>
+        </is>
+      </c>
+      <c r="D2119" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2119" s="2" t="n">
+        <v>44741.71180555555</v>
+      </c>
+      <c r="F2119" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3637-30-LP22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2119"/>
+  <dimension ref="A1:F2120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55470,6 +55470,32 @@
         </is>
       </c>
     </row>
+    <row r="2120">
+      <c r="A2120" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2422-350-L122</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOLICITUD 937070 ROLLOS DE NYLON VIRGEN TRANSPARENTE DE 400 MICRONES O </t>
+        </is>
+      </c>
+      <c r="D2120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2120" s="2" t="n">
+        <v>44732.625</v>
+      </c>
+      <c r="F2120" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-350-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2120"/>
+  <dimension ref="A1:F2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55496,6 +55496,396 @@
         </is>
       </c>
     </row>
+    <row r="2121">
+      <c r="A2121" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>712307-35-LE22</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>Servicios Legales para Villa Los Cóndores Temuco</t>
+        </is>
+      </c>
+      <c r="D2121" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2121" s="2" t="n">
+        <v>44694.47847222222</v>
+      </c>
+      <c r="F2121" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=712307-35-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>634-19-LP22</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Servicio mantención al sistema de climatización </t>
+        </is>
+      </c>
+      <c r="D2122" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2122" s="2" t="n">
+        <v>44662.63194444445</v>
+      </c>
+      <c r="F2122" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=634-19-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>748902-1-LE22</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>Adquisición Instalación y Mantención de 20 Cámara</t>
+        </is>
+      </c>
+      <c r="D2123" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2123" s="2" t="n">
+        <v>44704.64583333334</v>
+      </c>
+      <c r="F2123" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=748902-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>621-555-LQ22</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TACROLIMUS 1 MG CP  1000017046 </t>
+        </is>
+      </c>
+      <c r="D2124" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2124" s="2" t="n">
+        <v>44718.66666666666</v>
+      </c>
+      <c r="F2124" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-555-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2258-86-LE22</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>Solución ácidos grasos para el cuidado de la piel</t>
+        </is>
+      </c>
+      <c r="D2125" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2125" s="2" t="n">
+        <v>44692.72569444445</v>
+      </c>
+      <c r="F2125" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2258-86-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>3387-8-LE22</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>MANTENIMIENTO Y REPARACIÓN DE BUSES DEL RLE N1</t>
+        </is>
+      </c>
+      <c r="D2126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2126" s="2" t="n">
+        <v>44746.70833333334</v>
+      </c>
+      <c r="F2126" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3387-8-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>5413-99-LE22</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>Convenio de suministro Servicio de Coffe Break</t>
+        </is>
+      </c>
+      <c r="D2127" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2127" s="2" t="n">
+        <v>44734.66666666666</v>
+      </c>
+      <c r="F2127" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5413-99-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2157-33-LE22</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>LIGAMENTO CRUZADO ANTERIOR</t>
+        </is>
+      </c>
+      <c r="D2128" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2128" s="2" t="n">
+        <v>44664.62569444445</v>
+      </c>
+      <c r="F2128" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2157-33-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2296-66-L122</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>IMPRESIÓN DE FORMULARIOS DE ÓRDENES DE INGRESO MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="D2129" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2129" s="2" t="n">
+        <v>44748.50069444445</v>
+      </c>
+      <c r="F2129" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2296-66-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2392-45-LE22</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>ARTÍCULOS DEPORTIVOS ESCUELAS MUNICIPALES PAC</t>
+        </is>
+      </c>
+      <c r="D2130" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2130" s="2" t="n">
+        <v>44704.66597222222</v>
+      </c>
+      <c r="F2130" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2392-45-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>622-65-LE22</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>CURSO INNOVACIÓN PÚBLICA Y TRANSFORMACIÓN DIGITAL</t>
+        </is>
+      </c>
+      <c r="D2131" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2131" s="2" t="n">
+        <v>44736.5</v>
+      </c>
+      <c r="F2131" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=622-65-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>948354-44-LR22</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONTRATACIÓN DEL SERVICIO DE GUARDIAS PARA EL HOSPITAL DIPRECA </t>
+        </is>
+      </c>
+      <c r="D2132" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2132" s="2" t="n">
+        <v>44665.66666666666</v>
+      </c>
+      <c r="F2132" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=948354-44-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>1638-150-LQ22</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OBRAS DE  PAVIMENTACION Y ESPACIO PUBLICO EN CAMPAMENTO VILLA STONE COMUN DE DIEGO DE ALMAGRO SM 1016 </t>
+        </is>
+      </c>
+      <c r="D2133" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2133" s="2" t="n">
+        <v>44747.625</v>
+      </c>
+      <c r="F2133" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1638-150-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>4993-50-LP22</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>SERVICIO DE TELEFONIA MOVIL E INTERNET MOVIL 2022</t>
+        </is>
+      </c>
+      <c r="D2134" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2134" s="2" t="n">
+        <v>44750.53263888889</v>
+      </c>
+      <c r="F2134" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4993-50-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>1217466-5-LQ22</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>SERVICIOS DE ASEO Y MANTENIMIENTO PARA EL MHN</t>
+        </is>
+      </c>
+      <c r="D2135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2135" s="2" t="n">
+        <v>44697.78055555555</v>
+      </c>
+      <c r="F2135" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1217466-5-LQ22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2135"/>
+  <dimension ref="A1:F2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55886,6 +55886,1020 @@
         </is>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>1069417-181-LE22</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>CONTAINERS PARA POSTA DE CATO</t>
+        </is>
+      </c>
+      <c r="D2136" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2136" s="2" t="n">
+        <v>44753.82986111111</v>
+      </c>
+      <c r="F2136" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1069417-181-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>1057499-18-LE22</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>CURSOS DE CAPACITACIÓN PARA FUNCIONARIOS DE LA RED DEL SERVICIO DE SALUD METROPOLITANO SUR</t>
+        </is>
+      </c>
+      <c r="D2137" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2137" s="2" t="n">
+        <v>44708.66666666666</v>
+      </c>
+      <c r="F2137" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057499-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2377-216-L122</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>ARRIENDO DE 1 CAMION TOLVA 10 MT.3 Y 1 MINICARGADOR 1.000 kg. - IDDOC 574464</t>
+        </is>
+      </c>
+      <c r="D2138" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2138" s="2" t="n">
+        <v>44728.62569444445</v>
+      </c>
+      <c r="F2138" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-216-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>4511-10-LQ22</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>INSTALAC. Y RECAMBIO DE ILUMINAC. LED CASCO ANTIGUO COMUNA  DE RETIRO</t>
+        </is>
+      </c>
+      <c r="D2139" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2139" s="2" t="n">
+        <v>44711.62569444445</v>
+      </c>
+      <c r="F2139" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4511-10-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2111-161-LQ22</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENIMIENTO DE PUERTAS AUTOMATICAS</t>
+        </is>
+      </c>
+      <c r="D2140" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2140" s="2" t="n">
+        <v>44735.625</v>
+      </c>
+      <c r="F2140" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-161-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>3231-101-L122</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>ADQUISICION DE ACCESORIOS  Y EQUIPOS DE IMPLEMENTACION PARA SER ENTREGADOS COMO PREMIOS DE BODYBOARD SEGUN BASES ADJUNTAS.</t>
+        </is>
+      </c>
+      <c r="D2141" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2141" s="2" t="n">
+        <v>44746.6375</v>
+      </c>
+      <c r="F2141" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3231-101-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>812261-21-LQ22</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>Servicios Profesionales Clinicos a Domicilio</t>
+        </is>
+      </c>
+      <c r="D2142" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2142" s="2" t="n">
+        <v>44692.625</v>
+      </c>
+      <c r="F2142" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=812261-21-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2343-75-L122</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>Ped. 1176 OQM Central Telefonica</t>
+        </is>
+      </c>
+      <c r="D2143" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2143" s="2" t="n">
+        <v>44705.41666666666</v>
+      </c>
+      <c r="F2143" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2343-75-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>1628-10-LE22</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>COMPRA SERVICIO DENTAL PRÓTESIS REMOVIBLE MAI NO GES</t>
+        </is>
+      </c>
+      <c r="D2144" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2144" s="2" t="n">
+        <v>44693.46458333333</v>
+      </c>
+      <c r="F2144" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1628-10-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2008-9-LE22</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPARACION CIERRE CAMPAMENTO PAPUDO </t>
+        </is>
+      </c>
+      <c r="D2145" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2145" s="2" t="n">
+        <v>44746.625</v>
+      </c>
+      <c r="F2145" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2008-9-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>607-63-L122</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>CURSO DE CAPACITACIÓN DE GÉNERO BASICO</t>
+        </is>
+      </c>
+      <c r="D2146" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2146" s="2" t="n">
+        <v>44725.83333333334</v>
+      </c>
+      <c r="F2146" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=607-63-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>956-27-LE22</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>Servicios de transporte e instalación de containers desde Club de Campo Quebrada Verde al Cesfam JMT Vigencia 60 dias corridos</t>
+        </is>
+      </c>
+      <c r="D2147" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2147" s="2" t="n">
+        <v>44665.6875</v>
+      </c>
+      <c r="F2147" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=956-27-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>621-417-LR22</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOMETASONA 50 MCGDO SUS. NASAL NEB FRA  1000016813 </t>
+        </is>
+      </c>
+      <c r="D2148" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2148" s="2" t="n">
+        <v>44693.66666666666</v>
+      </c>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-417-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>1013609-19-LE22</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>adq de insumos eléctricos para el CM Antofagasta</t>
+        </is>
+      </c>
+      <c r="D2149" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2149" s="2" t="n">
+        <v>44755.62638888889</v>
+      </c>
+      <c r="F2149" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1013609-19-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>229-95-LE22</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>Adquisición de diversos artículos para uso municipal</t>
+        </is>
+      </c>
+      <c r="D2150" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2150" s="2" t="n">
+        <v>44726.65902777778</v>
+      </c>
+      <c r="F2150" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=229-95-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2401-117-LP22</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE EQUIPOS COMPUTACIONALES PARA DIVERSAS UNIDADES MUNICIPALES 2022”</t>
+        </is>
+      </c>
+      <c r="D2151" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2151" s="2" t="n">
+        <v>44726.41666666666</v>
+      </c>
+      <c r="F2151" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2401-117-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2422-317-LE22</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>SOL. 936892 PROVISION E INSTALACION CONTROL ACCESO</t>
+        </is>
+      </c>
+      <c r="D2152" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2152" s="2" t="n">
+        <v>44718.62638888889</v>
+      </c>
+      <c r="F2152" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-317-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>1756-4-LE22</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>SERVICIO DE DISEÑO Y EJECUCION CAPACITACIÓN</t>
+        </is>
+      </c>
+      <c r="D2153" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2153" s="2" t="n">
+        <v>44728.5</v>
+      </c>
+      <c r="F2153" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1756-4-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>1549-36-LQ22</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>MANT. DE INFRAESTRUCTURA REPARACIONES Y OTROS</t>
+        </is>
+      </c>
+      <c r="D2154" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2154" s="2" t="n">
+        <v>44711.62569444445</v>
+      </c>
+      <c r="F2154" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1549-36-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>759-115-LQ22</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>SERVICIOS DE MEDIACIÓN FAMILIAR, ZONA H, REGIÓN DEL BIOBÍO</t>
+        </is>
+      </c>
+      <c r="D2155" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2155" s="2" t="n">
+        <v>44694.625</v>
+      </c>
+      <c r="F2155" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=759-115-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>2216-37-O121</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>Acceso Vial Aeropuerto AMB, Sub Tramos B2, B3 y B4</t>
+        </is>
+      </c>
+      <c r="D2156" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2156" s="2" t="n">
+        <v>44756.41666666666</v>
+      </c>
+      <c r="F2156" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-37-O121</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>1622-15-LP22</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE HEMATOLOGIA Y EQUIPO EN COMODATO</t>
+        </is>
+      </c>
+      <c r="D2157" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2157" s="2" t="n">
+        <v>44740.66666666666</v>
+      </c>
+      <c r="F2157" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1622-15-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>2345-117-LQ22</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>SERVICIO DE HABILITACIÓN PRODUCCIÓN Y MANTENCIÓN</t>
+        </is>
+      </c>
+      <c r="D2158" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2158" s="2" t="n">
+        <v>44732.66666666666</v>
+      </c>
+      <c r="F2158" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2345-117-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>1078177-29-LE22</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>Equipos de Brechas para Operaciones Policiales</t>
+        </is>
+      </c>
+      <c r="D2159" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2159" s="2" t="n">
+        <v>44755.78333333333</v>
+      </c>
+      <c r="F2159" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1078177-29-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>1079713-47-LE22</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENCION Y REPARACION DE J-1206</t>
+        </is>
+      </c>
+      <c r="D2160" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2160" s="2" t="n">
+        <v>44753.75</v>
+      </c>
+      <c r="F2160" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079713-47-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>996-87-LE22</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>COMPRA DE POLVO DE ROCA ELQUI</t>
+        </is>
+      </c>
+      <c r="D2161" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2161" s="2" t="n">
+        <v>44753.625</v>
+      </c>
+      <c r="F2161" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=996-87-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>996-81-LE22</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>COMPRA DE MATERIAL GRANULAR ELQUI</t>
+        </is>
+      </c>
+      <c r="D2162" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2162" s="2" t="n">
+        <v>44753.625</v>
+      </c>
+      <c r="F2162" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=996-81-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>1459-18-L122</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> compra de Equipos Menores </t>
+        </is>
+      </c>
+      <c r="D2163" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2163" s="2" t="n">
+        <v>44754.72916666666</v>
+      </c>
+      <c r="F2163" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1459-18-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>1540-91-LE22</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>MANO DE OBRA TALLER MECANICO VEHICULOS FISCALES HP</t>
+        </is>
+      </c>
+      <c r="D2164" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2164" s="2" t="n">
+        <v>44728.5</v>
+      </c>
+      <c r="F2164" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1540-91-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>1380-116-LE22</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>PTTA 180-22 “ADQUISICIÓN DE INSUMOS PARA CREDENCIALES INSTITUCIONALES”</t>
+        </is>
+      </c>
+      <c r="D2165" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2165" s="2" t="n">
+        <v>44697.625</v>
+      </c>
+      <c r="F2165" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-116-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>1380-118-LE22</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>Propuesta Pública Nº 177-22 denominada “ADQUISICIÓN DE APILADORES ELÉCTRICOS ANGOSTOS Y TRANSPALETAS ELÉCTRICOS”</t>
+        </is>
+      </c>
+      <c r="D2166" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2166" s="2" t="n">
+        <v>44698.625</v>
+      </c>
+      <c r="F2166" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-118-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>1459-16-LE22</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>Reparaciones de Cobertizos Caseta Y Cercos</t>
+        </is>
+      </c>
+      <c r="D2167" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2167" s="2" t="n">
+        <v>44754.75</v>
+      </c>
+      <c r="F2167" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1459-16-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>4281-42-LE22</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>CONTENEDORES PARA CESFAM.</t>
+        </is>
+      </c>
+      <c r="D2168" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2168" s="2" t="n">
+        <v>44749.625</v>
+      </c>
+      <c r="F2168" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4281-42-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>996-82-LE22</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>COMPRA DE MATERIAL GRANULAR ELQUI</t>
+        </is>
+      </c>
+      <c r="D2169" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2169" s="2" t="n">
+        <v>44753.625</v>
+      </c>
+      <c r="F2169" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=996-82-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>1459-15-LE22</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>Reparaciones de instalaciones para Personal Fiscal</t>
+        </is>
+      </c>
+      <c r="D2170" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2170" s="2" t="n">
+        <v>44754.41666666666</v>
+      </c>
+      <c r="F2170" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1459-15-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>3588-20-LQ22</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>SERVICIO DE APERTURA DE CUENTAS CORRIENTES</t>
+        </is>
+      </c>
+      <c r="D2171" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2171" s="2" t="n">
+        <v>44734.64583333334</v>
+      </c>
+      <c r="F2171" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3588-20-LQ22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>1070620-38-LE22</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>nzm Adq. Modulo container para oficina</t>
+        </is>
+      </c>
+      <c r="D2172" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2172" s="2" t="n">
+        <v>44720.625</v>
+      </c>
+      <c r="F2172" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1070620-38-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>324-129-LP22</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>Mejoramiento de Alumbrado Público Paseo Interior</t>
+        </is>
+      </c>
+      <c r="D2173" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2173" s="2" t="n">
+        <v>44726.66666666666</v>
+      </c>
+      <c r="F2173" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=324-129-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>1057678-1-LE22</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>PARLANTES BLUETOOTH</t>
+        </is>
+      </c>
+      <c r="D2174" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2174" s="2" t="n">
+        <v>44718.83333333334</v>
+      </c>
+      <c r="F2174" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057678-1-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2174"/>
+  <dimension ref="A1:F2176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56900,6 +56900,58 @@
         </is>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>1057474-7-LE22</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>CONTRATACIÓN DE PROGRAMAS DE CAPACITACIÓN PARA FUNCIONARIOS DEL SERVICIO DE SALUD METROPOLITANO NORTE PERTENECIENTES AL PROGRAMA DE INICIATIVA MINISTERIAL PIM 2022</t>
+        </is>
+      </c>
+      <c r="D2175" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2175" s="2" t="n">
+        <v>44690.625</v>
+      </c>
+      <c r="F2175" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057474-7-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2705-85-L122</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>SERVICIO DE PRODUCCIÓN EDITORIAL, PARA LA UNIVERSIDAD DEL BÍO-BÍO, SEDE CHILLÁN</t>
+        </is>
+      </c>
+      <c r="D2176" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2176" s="2" t="n">
+        <v>44735.41597222222</v>
+      </c>
+      <c r="F2176" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2705-85-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2176"/>
+  <dimension ref="A1:F2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56952,6 +56952,236 @@
         </is>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2177" t="inlineStr"/>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>Servicio de mantenimiento de bombas y pozos</t>
+        </is>
+      </c>
+      <c r="D2177" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2177" s="2" t="n">
+        <v>44753.62847222222</v>
+      </c>
+      <c r="F2177" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>3191-78-LE22</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>SERVICIO DE ACONDICIONAMIENTO DE TECHOS H. NAVAL</t>
+        </is>
+      </c>
+      <c r="D2178" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2178" s="2" t="n">
+        <v>44729.62847222222</v>
+      </c>
+      <c r="F2178" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3191-78-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>2111-177-LP22</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>SERVICIO DE ALMACENAJE CUSTODIA Y ADMINISTRAC II</t>
+        </is>
+      </c>
+      <c r="D2179" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2179" s="2" t="n">
+        <v>44740.62569444445</v>
+      </c>
+      <c r="F2179" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2111-177-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>948354-85-LE22</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE PORTA SUEROS</t>
+        </is>
+      </c>
+      <c r="D2180" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2180" s="2" t="n">
+        <v>44700.66666666666</v>
+      </c>
+      <c r="F2180" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=948354-85-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>1380-114-LE22</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>PPTA 175-22 CURSOS PAC 2022 MODALIDAD E-LEARNING</t>
+        </is>
+      </c>
+      <c r="D2181" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2181" s="2" t="n">
+        <v>44697.625</v>
+      </c>
+      <c r="F2181" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-114-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>1380-119-LE22</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>PPTA 195-22 “ADQUISICIÓN DE TOALLAS DESINFECTANTES”</t>
+        </is>
+      </c>
+      <c r="D2182" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2182" s="2" t="n">
+        <v>44700.625</v>
+      </c>
+      <c r="F2182" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1380-119-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>1778-53-L122</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>Servicio de Diseño y Programación de Landing Page de Campaña de Difusión "Cuidamos tu Independencia"</t>
+        </is>
+      </c>
+      <c r="D2183" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2183" s="2" t="n">
+        <v>44746.625</v>
+      </c>
+      <c r="F2183" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1778-53-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>3193-35-LE22</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>PILOTE HINCADO NIBALDO 8</t>
+        </is>
+      </c>
+      <c r="D2184" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2184" s="2" t="n">
+        <v>44753.64652777778</v>
+      </c>
+      <c r="F2184" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3193-35-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2157-41-LP22</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE TONERS TINTAS Y CARTRIDGES</t>
+        </is>
+      </c>
+      <c r="D2185" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2185" s="2" t="n">
+        <v>44669.64583333334</v>
+      </c>
+      <c r="F2185" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2157-41-LP22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2185"/>
+  <dimension ref="A1:F2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57182,6 +57182,366 @@
         </is>
       </c>
     </row>
+    <row r="2186">
+      <c r="A2186" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2186" t="inlineStr"/>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>Servicio de mantenimiento de bombas y pozos</t>
+        </is>
+      </c>
+      <c r="D2186" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2186" s="2" t="n">
+        <v>44753.62847222222</v>
+      </c>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>2046-10-L122</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>SEGURO VEHICULOS MOTORIZADOS HOSPITAL DE MOLINA</t>
+        </is>
+      </c>
+      <c r="D2187" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2187" s="2" t="n">
+        <v>44760.64583333334</v>
+      </c>
+      <c r="F2187" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2046-10-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>1100335-1-L122</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>CAMILLAS DE RESCATE PARA CUARTELES FRONTERIZOS</t>
+        </is>
+      </c>
+      <c r="D2188" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2188" s="2" t="n">
+        <v>44736.85694444444</v>
+      </c>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1100335-1-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>761391-87-L122</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EE/31A/EDU/LFM/ MANTENIMIENTO A EQUIPOS DE COCINA </t>
+        </is>
+      </c>
+      <c r="D2189" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2189" s="2" t="n">
+        <v>44715.625</v>
+      </c>
+      <c r="F2189" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=761391-87-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>1979-126-LE22</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>N° 137.22 “SUMINISTRO DE DETERGENTE PARA LAVADO DE ROPA HOSPITALARIA PARA EL HOSPITAL DE NUEVA IMPERIAL”.</t>
+        </is>
+      </c>
+      <c r="D2190" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2190" s="2" t="n">
+        <v>44700.66666666666</v>
+      </c>
+      <c r="F2190" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-126-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>2377-245-L122</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>PLANTAS ORNAMENTALES SEGUN LISTADO ADJUNTO SP 596844</t>
+        </is>
+      </c>
+      <c r="D2191" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2191" s="2" t="n">
+        <v>44753.82986111111</v>
+      </c>
+      <c r="F2191" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-245-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>2561-61-L122</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADQUISICIÓN DE PUERTAS MAMPARAS PARA CUADRAS FEMENINA, ESFORPEN </t>
+        </is>
+      </c>
+      <c r="D2192" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2192" s="2" t="n">
+        <v>44747.625</v>
+      </c>
+      <c r="F2192" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2561-61-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>4973-3-L122</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN E INSTALACIÓN DE JUEGOS INFANTILES PLAZA NIÑOS VIZCACHAS</t>
+        </is>
+      </c>
+      <c r="D2193" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2193" s="2" t="n">
+        <v>44673.625</v>
+      </c>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4973-3-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>2377-215-L122</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>01 CURSO APLICACION MODELAMIENTO PROCESOS INSTITUCION PUBLICA CON BIZAGI SEGUN TERM. REFERENCIA - IDDOC 584562</t>
+        </is>
+      </c>
+      <c r="D2194" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2194" s="2" t="n">
+        <v>44728.64583333334</v>
+      </c>
+      <c r="F2194" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-215-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>621-291-LR22</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>PURITA +PRO2 MOD. 1- ZONAS 12345 BOL 1 KG 1000016780</t>
+        </is>
+      </c>
+      <c r="D2195" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2195" s="2" t="n">
+        <v>44734.66666666666</v>
+      </c>
+      <c r="F2195" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-291-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>777304-41-LP22</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>CINTAS GLICEMIA PACIENTES HOSP. CON EQUIPOS</t>
+        </is>
+      </c>
+      <c r="D2196" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2196" s="2" t="n">
+        <v>44719.66666666666</v>
+      </c>
+      <c r="F2196" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=777304-41-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>1280-13-LE22</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>ARRIENDO EXCAVADORA TIPO PC130 O SUPERIOR</t>
+        </is>
+      </c>
+      <c r="D2197" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2197" s="2" t="n">
+        <v>44760.67708333334</v>
+      </c>
+      <c r="F2197" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1280-13-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>996-90-LE22</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>COMPRA DE POLVO DE ROCA ELQUI</t>
+        </is>
+      </c>
+      <c r="D2198" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2198" s="2" t="n">
+        <v>44760.625</v>
+      </c>
+      <c r="F2198" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=996-90-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2377-218-L122</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>COMPUTADOR TIPO TORRES SEGÚN CARACTERÍSTICAS ADJUNTAS. IDDOC 581040</t>
+        </is>
+      </c>
+      <c r="D2199" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2199" s="2" t="n">
+        <v>44732.625</v>
+      </c>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-218-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2199"/>
+  <dimension ref="A1:F2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57184,23 +57184,27 @@
     </row>
     <row r="2186">
       <c r="A2186" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B2186" t="inlineStr"/>
+        <v>44761</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2046-10-L122</t>
+        </is>
+      </c>
       <c r="C2186" t="inlineStr">
         <is>
-          <t>Servicio de mantenimiento de bombas y pozos</t>
+          <t>SEGURO VEHICULOS MOTORIZADOS HOSPITAL DE MOLINA</t>
         </is>
       </c>
       <c r="D2186" t="n">
         <v>15</v>
       </c>
       <c r="E2186" s="2" t="n">
-        <v>44753.62847222222</v>
+        <v>44760.64583333334</v>
       </c>
       <c r="F2186" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2046-10-L122</t>
         </is>
       </c>
     </row>
@@ -57210,23 +57214,23 @@
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>2046-10-L122</t>
+          <t>1100335-1-L122</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr">
         <is>
-          <t>SEGURO VEHICULOS MOTORIZADOS HOSPITAL DE MOLINA</t>
+          <t>CAMILLAS DE RESCATE PARA CUARTELES FRONTERIZOS</t>
         </is>
       </c>
       <c r="D2187" t="n">
         <v>15</v>
       </c>
       <c r="E2187" s="2" t="n">
-        <v>44760.64583333334</v>
+        <v>44736.85694444444</v>
       </c>
       <c r="F2187" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2046-10-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1100335-1-L122</t>
         </is>
       </c>
     </row>
@@ -57236,23 +57240,23 @@
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>1100335-1-L122</t>
+          <t>761391-87-L122</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr">
         <is>
-          <t>CAMILLAS DE RESCATE PARA CUARTELES FRONTERIZOS</t>
+          <t xml:space="preserve">EE/31A/EDU/LFM/ MANTENIMIENTO A EQUIPOS DE COCINA </t>
         </is>
       </c>
       <c r="D2188" t="n">
         <v>15</v>
       </c>
       <c r="E2188" s="2" t="n">
-        <v>44736.85694444444</v>
+        <v>44715.625</v>
       </c>
       <c r="F2188" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1100335-1-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=761391-87-L122</t>
         </is>
       </c>
     </row>
@@ -57262,23 +57266,23 @@
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>761391-87-L122</t>
+          <t>1979-126-LE22</t>
         </is>
       </c>
       <c r="C2189" t="inlineStr">
         <is>
-          <t xml:space="preserve">EE/31A/EDU/LFM/ MANTENIMIENTO A EQUIPOS DE COCINA </t>
+          <t>N° 137.22 “SUMINISTRO DE DETERGENTE PARA LAVADO DE ROPA HOSPITALARIA PARA EL HOSPITAL DE NUEVA IMPERIAL”.</t>
         </is>
       </c>
       <c r="D2189" t="n">
         <v>15</v>
       </c>
       <c r="E2189" s="2" t="n">
-        <v>44715.625</v>
+        <v>44700.66666666666</v>
       </c>
       <c r="F2189" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=761391-87-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-126-LE22</t>
         </is>
       </c>
     </row>
@@ -57288,23 +57292,23 @@
       </c>
       <c r="B2190" t="inlineStr">
         <is>
-          <t>1979-126-LE22</t>
+          <t>2377-245-L122</t>
         </is>
       </c>
       <c r="C2190" t="inlineStr">
         <is>
-          <t>N° 137.22 “SUMINISTRO DE DETERGENTE PARA LAVADO DE ROPA HOSPITALARIA PARA EL HOSPITAL DE NUEVA IMPERIAL”.</t>
+          <t>PLANTAS ORNAMENTALES SEGUN LISTADO ADJUNTO SP 596844</t>
         </is>
       </c>
       <c r="D2190" t="n">
         <v>15</v>
       </c>
       <c r="E2190" s="2" t="n">
-        <v>44700.66666666666</v>
+        <v>44753.82986111111</v>
       </c>
       <c r="F2190" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1979-126-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-245-L122</t>
         </is>
       </c>
     </row>
@@ -57314,23 +57318,23 @@
       </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>2377-245-L122</t>
+          <t>2561-61-L122</t>
         </is>
       </c>
       <c r="C2191" t="inlineStr">
         <is>
-          <t>PLANTAS ORNAMENTALES SEGUN LISTADO ADJUNTO SP 596844</t>
+          <t xml:space="preserve">ADQUISICIÓN DE PUERTAS MAMPARAS PARA CUADRAS FEMENINA, ESFORPEN </t>
         </is>
       </c>
       <c r="D2191" t="n">
         <v>15</v>
       </c>
       <c r="E2191" s="2" t="n">
-        <v>44753.82986111111</v>
+        <v>44747.625</v>
       </c>
       <c r="F2191" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-245-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2561-61-L122</t>
         </is>
       </c>
     </row>
@@ -57340,23 +57344,23 @@
       </c>
       <c r="B2192" t="inlineStr">
         <is>
-          <t>2561-61-L122</t>
+          <t>4973-3-L122</t>
         </is>
       </c>
       <c r="C2192" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADQUISICIÓN DE PUERTAS MAMPARAS PARA CUADRAS FEMENINA, ESFORPEN </t>
+          <t>ADQUISICIÓN E INSTALACIÓN DE JUEGOS INFANTILES PLAZA NIÑOS VIZCACHAS</t>
         </is>
       </c>
       <c r="D2192" t="n">
         <v>15</v>
       </c>
       <c r="E2192" s="2" t="n">
-        <v>44747.625</v>
+        <v>44673.625</v>
       </c>
       <c r="F2192" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2561-61-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4973-3-L122</t>
         </is>
       </c>
     </row>
@@ -57366,23 +57370,23 @@
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>4973-3-L122</t>
+          <t>2377-215-L122</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr">
         <is>
-          <t>ADQUISICIÓN E INSTALACIÓN DE JUEGOS INFANTILES PLAZA NIÑOS VIZCACHAS</t>
+          <t>01 CURSO APLICACION MODELAMIENTO PROCESOS INSTITUCION PUBLICA CON BIZAGI SEGUN TERM. REFERENCIA - IDDOC 584562</t>
         </is>
       </c>
       <c r="D2193" t="n">
         <v>15</v>
       </c>
       <c r="E2193" s="2" t="n">
-        <v>44673.625</v>
+        <v>44728.64583333334</v>
       </c>
       <c r="F2193" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4973-3-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-215-L122</t>
         </is>
       </c>
     </row>
@@ -57392,23 +57396,23 @@
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>2377-215-L122</t>
+          <t>621-291-LR22</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr">
         <is>
-          <t>01 CURSO APLICACION MODELAMIENTO PROCESOS INSTITUCION PUBLICA CON BIZAGI SEGUN TERM. REFERENCIA - IDDOC 584562</t>
+          <t>PURITA +PRO2 MOD. 1- ZONAS 12345 BOL 1 KG 1000016780</t>
         </is>
       </c>
       <c r="D2194" t="n">
         <v>15</v>
       </c>
       <c r="E2194" s="2" t="n">
-        <v>44728.64583333334</v>
+        <v>44734.66666666666</v>
       </c>
       <c r="F2194" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-215-L122</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-291-LR22</t>
         </is>
       </c>
     </row>
@@ -57418,23 +57422,23 @@
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>621-291-LR22</t>
+          <t>777304-41-LP22</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr">
         <is>
-          <t>PURITA +PRO2 MOD. 1- ZONAS 12345 BOL 1 KG 1000016780</t>
+          <t>CINTAS GLICEMIA PACIENTES HOSP. CON EQUIPOS</t>
         </is>
       </c>
       <c r="D2195" t="n">
         <v>15</v>
       </c>
       <c r="E2195" s="2" t="n">
-        <v>44734.66666666666</v>
+        <v>44719.66666666666</v>
       </c>
       <c r="F2195" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=621-291-LR22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=777304-41-LP22</t>
         </is>
       </c>
     </row>
@@ -57444,23 +57448,23 @@
       </c>
       <c r="B2196" t="inlineStr">
         <is>
-          <t>777304-41-LP22</t>
+          <t>1280-13-LE22</t>
         </is>
       </c>
       <c r="C2196" t="inlineStr">
         <is>
-          <t>CINTAS GLICEMIA PACIENTES HOSP. CON EQUIPOS</t>
+          <t>ARRIENDO EXCAVADORA TIPO PC130 O SUPERIOR</t>
         </is>
       </c>
       <c r="D2196" t="n">
         <v>15</v>
       </c>
       <c r="E2196" s="2" t="n">
-        <v>44719.66666666666</v>
+        <v>44760.67708333334</v>
       </c>
       <c r="F2196" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=777304-41-LP22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1280-13-LE22</t>
         </is>
       </c>
     </row>
@@ -57470,23 +57474,23 @@
       </c>
       <c r="B2197" t="inlineStr">
         <is>
-          <t>1280-13-LE22</t>
+          <t>996-90-LE22</t>
         </is>
       </c>
       <c r="C2197" t="inlineStr">
         <is>
-          <t>ARRIENDO EXCAVADORA TIPO PC130 O SUPERIOR</t>
+          <t>COMPRA DE POLVO DE ROCA ELQUI</t>
         </is>
       </c>
       <c r="D2197" t="n">
         <v>15</v>
       </c>
       <c r="E2197" s="2" t="n">
-        <v>44760.67708333334</v>
+        <v>44760.625</v>
       </c>
       <c r="F2197" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1280-13-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=996-90-LE22</t>
         </is>
       </c>
     </row>
@@ -57496,49 +57500,361 @@
       </c>
       <c r="B2198" t="inlineStr">
         <is>
-          <t>996-90-LE22</t>
+          <t>2377-218-L122</t>
         </is>
       </c>
       <c r="C2198" t="inlineStr">
         <is>
-          <t>COMPRA DE POLVO DE ROCA ELQUI</t>
+          <t>COMPUTADOR TIPO TORRES SEGÚN CARACTERÍSTICAS ADJUNTAS. IDDOC 581040</t>
         </is>
       </c>
       <c r="D2198" t="n">
         <v>15</v>
       </c>
       <c r="E2198" s="2" t="n">
-        <v>44760.625</v>
+        <v>44732.625</v>
       </c>
       <c r="F2198" t="inlineStr">
         <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=996-90-LE22</t>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-218-L122</t>
         </is>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
-          <t>2377-218-L122</t>
+          <t>1057972-2-LR22</t>
         </is>
       </c>
       <c r="C2199" t="inlineStr">
         <is>
-          <t>COMPUTADOR TIPO TORRES SEGÚN CARACTERÍSTICAS ADJUNTAS. IDDOC 581040</t>
+          <t>Centro Nacional de Radioterapia Infanto-Juvenil HEGC</t>
         </is>
       </c>
       <c r="D2199" t="n">
         <v>15</v>
       </c>
       <c r="E2199" s="2" t="n">
+        <v>44711.66666666666</v>
+      </c>
+      <c r="F2199" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057972-2-LR22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>1207912-2-LE22</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>Servicio de aseo para Dirección Regional de Arica</t>
+        </is>
+      </c>
+      <c r="D2200" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2200" s="2" t="n">
+        <v>44741.62569444445</v>
+      </c>
+      <c r="F2200" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1207912-2-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2583-194-L122</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>Se solicita la compra de cilindros de gas licuado de 11 kilos, vacíos/ Fondo correspondiente a Ppto. APS/DISAM/ SP 43068/ AMS</t>
+        </is>
+      </c>
+      <c r="D2201" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2201" s="2" t="n">
+        <v>44755.43680555555</v>
+      </c>
+      <c r="F2201" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2583-194-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>1057402-142-LP22</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>MANO DE OBRA AUXILIARES DE SERVICIO CR PENSIONADO</t>
+        </is>
+      </c>
+      <c r="D2202" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2202" s="2" t="n">
         <v>44732.625</v>
       </c>
-      <c r="F2199" t="inlineStr">
-        <is>
-          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-218-L122</t>
+      <c r="F2202" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1057402-142-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2273-147-L122</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>CARROS DE COMIDA ACTIVIDAD DE INVIERNO XG</t>
+        </is>
+      </c>
+      <c r="D2203" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2203" s="2" t="n">
+        <v>44753.67361111111</v>
+      </c>
+      <c r="F2203" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2273-147-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2683-50-L122</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>licitacion de prueba  N° 01</t>
+        </is>
+      </c>
+      <c r="D2204" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2204" s="2" t="n">
+        <v>44760.71111111111</v>
+      </c>
+      <c r="F2204" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2683-50-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>750998-57-LP21</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>Reposición Cancha Villa Las Palmeras</t>
+        </is>
+      </c>
+      <c r="D2205" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2205" s="2" t="n">
+        <v>44614.41666666666</v>
+      </c>
+      <c r="F2205" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=750998-57-LP21</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>591-18-LE22</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>PROYECTO DE ACCESIBILIDAD UNIVERSAL SUCURSAL RENGO</t>
+        </is>
+      </c>
+      <c r="D2206" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2206" s="2" t="n">
+        <v>44753.66666666666</v>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=591-18-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>794947-12-LE22</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>SA 57 UUII 006-008 JARDIN GBS PAF OBRAS CIVILES</t>
+        </is>
+      </c>
+      <c r="D2207" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2207" s="2" t="n">
+        <v>44720.62847222222</v>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=794947-12-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2046-9-L122</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>SEGURO VEHICULOS MOTORIZADOS HOSPITAL DE MOLINA</t>
+        </is>
+      </c>
+      <c r="D2208" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2208" s="2" t="n">
+        <v>44760.66666666666</v>
+      </c>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2046-9-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2683-52-L122</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>Prueba licitación N°3</t>
+        </is>
+      </c>
+      <c r="D2209" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2209" s="2" t="n">
+        <v>44760.625</v>
+      </c>
+      <c r="F2209" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2683-52-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2377-256-L122</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>MOBILIARIO DE OFICINA SEGUN PLANILLA ADJUNTA SP 597686</t>
+        </is>
+      </c>
+      <c r="D2210" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2210" s="2" t="n">
+        <v>44756.52638888889</v>
+      </c>
+      <c r="F2210" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2377-256-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>796305-16-LE22</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>PAF CR. HORNITOS 67 LA SVC REP. HONITOS FACH</t>
+        </is>
+      </c>
+      <c r="D2211" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2211" s="2" t="n">
+        <v>44732.625</v>
+      </c>
+      <c r="F2211" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=796305-16-LE22</t>
         </is>
       </c>
     </row>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2211"/>
+  <dimension ref="A1:F2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57858,6 +57858,214 @@
         </is>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>5194-37-LE22</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>MAQUINAS DE EJERCICIOS GYM COMPLEJO DE RANCAGUA</t>
+        </is>
+      </c>
+      <c r="D2212" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2212" s="2" t="n">
+        <v>44746.63194444445</v>
+      </c>
+      <c r="F2212" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5194-37-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>229-99-LE22</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>Contratación Monitores Talleres Multiculturales</t>
+        </is>
+      </c>
+      <c r="D2213" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2213" s="2" t="n">
+        <v>44734.68819444445</v>
+      </c>
+      <c r="F2213" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=229-99-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>680517-1-LE22</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>SERVICIO DE TRASLADO FUNCIONARIO NOTIFICADOR</t>
+        </is>
+      </c>
+      <c r="D2214" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2214" s="2" t="n">
+        <v>44747.83263888889</v>
+      </c>
+      <c r="F2214" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=680517-1-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2674-40-L122</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE MATERIALES PARA PROYECTO DE RECICLAJE ORGÁNICO</t>
+        </is>
+      </c>
+      <c r="D2215" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2215" s="2" t="n">
+        <v>44719.625</v>
+      </c>
+      <c r="F2215" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2674-40-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2422-326-L122</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S/A 936997 DISO  PLANCHAS DE TERCIADO ESTRUCTURAL DE 18 MM </t>
+        </is>
+      </c>
+      <c r="D2216" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2216" s="2" t="n">
+        <v>44719.66666666666</v>
+      </c>
+      <c r="F2216" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-326-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>3196-14-LE22</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>CONSTRUCCIÓN DE CANIL PARA LA GOBERNACIÓN MARÍTIMA DE VALDIVIA</t>
+        </is>
+      </c>
+      <c r="D2217" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2217" s="2" t="n">
+        <v>44732.67916666667</v>
+      </c>
+      <c r="F2217" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3196-14-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2422-327-L122</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S/A 936989  DOE  TABLAS DE PINO CEPILLADAS Y EN BRUTO </t>
+        </is>
+      </c>
+      <c r="D2218" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2218" s="2" t="n">
+        <v>44719.70138888889</v>
+      </c>
+      <c r="F2218" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2422-327-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2980-15-L122</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D2219" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2219" s="2" t="n">
+        <v>44761.64652777778</v>
+      </c>
+      <c r="F2219" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2980-15-L122</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/licitaciones_revocada_2019.xlsx
+++ b/licitaciones_revocada_2019.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2219"/>
+  <dimension ref="A1:F2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58066,6 +58066,366 @@
         </is>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>1079713-50-LE22</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>SERVICIO DE MANTENCIÓN Y REPARACIÓN J-1206</t>
+        </is>
+      </c>
+      <c r="D2220" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2220" s="2" t="n">
+        <v>44760.75</v>
+      </c>
+      <c r="F2220" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1079713-50-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2817-27-LP22</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>Hab. Ciclovía calle Negrete Card. Caro Manso de V</t>
+        </is>
+      </c>
+      <c r="D2221" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2221" s="2" t="n">
+        <v>44735.58333333334</v>
+      </c>
+      <c r="F2221" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2817-27-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>993-80-LE22</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>SERVICIO DE VIGILANCIA FAENA.</t>
+        </is>
+      </c>
+      <c r="D2222" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2222" s="2" t="n">
+        <v>44753.625</v>
+      </c>
+      <c r="F2222" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=993-80-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>4050-67-LE22</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>CONVENIO DE SUMINISTROS DE ABARROTES FRUTERIA CA</t>
+        </is>
+      </c>
+      <c r="D2223" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2223" s="2" t="n">
+        <v>44732.63402777778</v>
+      </c>
+      <c r="F2223" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=4050-67-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>3573-37-LE22</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN  DE INSUMOS  Y EQUIPOS DE ENLACE Y TELECOMUNICACIONES IMPLEMENTACIÓN SEGURIDAD CIUDADANA</t>
+        </is>
+      </c>
+      <c r="D2224" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2224" s="2" t="n">
+        <v>44753.625</v>
+      </c>
+      <c r="F2224" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3573-37-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>1049-19-LE22</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>SERVICIOS DE DESARROLLO PROYECTO DE ARQUITECTURA</t>
+        </is>
+      </c>
+      <c r="D2225" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2225" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F2225" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1049-19-LE22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2216-46-O121</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>AIFM RUTA 5, TRAMO VALLENAR - CALDERA</t>
+        </is>
+      </c>
+      <c r="D2226" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2226" s="2" t="n">
+        <v>44587.41666666666</v>
+      </c>
+      <c r="F2226" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2216-46-O121</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>3940-8-LP22</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>Construcción Plaza Villa El Carbón Lebu</t>
+        </is>
+      </c>
+      <c r="D2227" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2227" s="2" t="n">
+        <v>44735.69375</v>
+      </c>
+      <c r="F2227" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3940-8-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>1823-23-L122</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>Adquisición de WC Antivandálico / Fluxor oculto  para centro CIP CRC Limache</t>
+        </is>
+      </c>
+      <c r="D2228" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2228" s="2" t="n">
+        <v>44756.66666666666</v>
+      </c>
+      <c r="F2228" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=1823-23-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2229" t="inlineStr"/>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>SERV. APLICACIÓN DE ASFALTO EN CALIENTE BULNES</t>
+        </is>
+      </c>
+      <c r="D2229" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2229" s="2" t="n">
+        <v>44753.63194444445</v>
+      </c>
+      <c r="F2229" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2585-60-L122</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>ADQ. CAPACITACION Y ASESORIA TECNICA, DIMAO, ORD N° 45/2022, LSV, IMA</t>
+        </is>
+      </c>
+      <c r="D2230" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2230" s="2" t="n">
+        <v>44704.625</v>
+      </c>
+      <c r="F2230" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2585-60-L122</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>3940-7-LP22</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>Norm. y Ampliación Sede Villa Esperanza Pehuén Leb</t>
+        </is>
+      </c>
+      <c r="D2231" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2231" s="2" t="n">
+        <v>44735.54166666666</v>
+      </c>
+      <c r="F2231" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=3940-7-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2440-178-LP22</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vales de Calzado para Funcionarios de la Educación de la RED Educativa Municipal </t>
+        </is>
+      </c>
+      <c r="D2232" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2232" s="2" t="n">
+        <v>44740.72708333333</v>
+      </c>
+      <c r="F2232" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=2440-178-LP22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>5018-4-LE22</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>MANTENIMIENTO Y REPARACIÓN DE EDIFICACIONES</t>
+        </is>
+      </c>
+      <c r="D2233" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2233" s="2" t="n">
+        <v>44750.58333333334</v>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>http://www.mercadopublico.cl/fichaLicitacion.html?idLicitacion=5018-4-LE22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
